--- a/species_table_pct.xlsx
+++ b/species_table_pct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AB9EA1FD-C9F8-4EF7-9C98-EC9C7CE3415D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{AB9EA1FD-C9F8-4EF7-9C98-EC9C7CE3415D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8FF34540-4FC7-4C1D-880E-51A76D1BD39A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_table_pct" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">species_table_pct!$A$1:$G$163</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -265,9 +265,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -931,66 +931,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -998,8 +989,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1355,11 +1355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1372,3222 +1372,3222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24">
+      <c r="D1" s="21">
         <v>1979</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="21">
         <v>1999</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="21">
         <v>2019</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>0.47368421052631599</v>
       </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G2" s="18">
-        <f>((D2-F2)/D2)*-100</f>
+      <c r="G2" s="15">
+        <f t="shared" ref="G2:G7" si="0">((D2-F2)/D2)*-100</f>
         <v>-84.920634920634924</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>0.68421052631578905</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>0.214285714285714</v>
       </c>
-      <c r="G3" s="11">
-        <f>((D3-F3)/D3)*-100</f>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
         <v>-68.6813186813187</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>3.2105263157894699</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>1.5</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>1.28571428571429</v>
       </c>
-      <c r="G4" s="18">
-        <f>((D4-F4)/D4)*-100</f>
+      <c r="G4" s="15">
+        <f t="shared" si="0"/>
         <v>-59.95316159250568</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>1.1052631578947401</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>1.1666666666666701</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>0.60714285714285698</v>
       </c>
-      <c r="G5" s="11">
-        <f>((D5-F5)/D5)*-100</f>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
         <v>-45.068027210884523</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G6" s="18">
-        <f>((D6-F6)/D6)*-100</f>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
         <v>-32.142857142857139</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>0.36842105263157898</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>2.2777777777777799</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>1.78571428571429</v>
       </c>
-      <c r="G7" s="11">
-        <f>((D7-F7)/D7)*-100</f>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
         <v>384.69387755102156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>0.214285714285714</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="14">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.157894736842105</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <f>((D12-F12)/D12)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <f>((D13-F13)/D13)*-100</f>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" ref="G12:G35" si="1">((D13-F13)/D13)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>0.26315789473684198</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <f>((D14-F14)/D14)*-100</f>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>1.3684210526315801</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>1.1666666666666701</v>
       </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <f>((D15-F15)/D15)*-100</f>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>0.26315789473684198</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <f>((D16-F16)/D16)*-100</f>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <v>0.21052631578947401</v>
       </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <f>((D17-F17)/D17)*-100</f>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>0.63157894736842102</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <f>((D18-F18)/D18)*-100</f>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="14">
         <v>0.105263157894737</v>
       </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <f>((D19-F19)/D19)*-100</f>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>0.63157894736842102</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <f>((D20-F20)/D20)*-100</f>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>0.94736842105263197</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="14">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G21" s="18">
-        <f>((D21-F21)/D21)*-100</f>
+      <c r="G21" s="15">
+        <f t="shared" si="1"/>
         <v>-92.460317460317469</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>0.84210526315789502</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G22" s="11">
-        <f>((D22-F22)/D22)*-100</f>
+      <c r="G22" s="9">
+        <f t="shared" si="1"/>
         <v>-83.035714285714263</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="16" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="14">
         <v>0.94736842105263197</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="14">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="14">
         <v>0.17857142857142899</v>
       </c>
-      <c r="G23" s="18">
-        <f>((D23-F23)/D23)*-100</f>
+      <c r="G23" s="15">
+        <f t="shared" si="1"/>
         <v>-81.150793650793617</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>0.157894736842105</v>
       </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G24" s="11">
-        <f>((D24-F24)/D24)*-100</f>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
         <v>-54.761904761904709</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="16" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="14">
         <v>0.63157894736842102</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="14">
         <v>0.77777777777777801</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="14">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G25" s="18">
-        <f>((D25-F25)/D25)*-100</f>
+      <c r="G25" s="15">
+        <f t="shared" si="1"/>
         <v>-37.797619047619015</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>0.47368421052631599</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>0.32142857142857101</v>
       </c>
-      <c r="G26" s="11">
-        <f>((D26-F26)/D26)*-100</f>
+      <c r="G26" s="9">
+        <f t="shared" si="1"/>
         <v>-32.14285714285726</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="16" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="14">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="14">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G27" s="18">
-        <f>((D27-F27)/D27)*-100</f>
+      <c r="G27" s="15">
+        <f t="shared" si="1"/>
         <v>-32.142857142857139</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G28" s="11">
-        <f>((D28-F28)/D28)*-100</f>
+      <c r="G28" s="9">
+        <f t="shared" si="1"/>
         <v>-32.142857142857139</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="16" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="14">
         <v>3.8421052631578898</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <v>3.0555555555555598</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="14">
         <v>3</v>
       </c>
-      <c r="G29" s="18">
-        <f>((D29-F29)/D29)*-100</f>
+      <c r="G29" s="15">
+        <f t="shared" si="1"/>
         <v>-21.917808219177981</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>0.52631578947368396</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>0.57142857142857095</v>
       </c>
-      <c r="G30" s="11">
-        <f>((D30-F30)/D30)*-100</f>
+      <c r="G30" s="9">
+        <f t="shared" si="1"/>
         <v>8.5714285714285321</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="16" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="14">
         <v>0.26315789473684198</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="14">
         <v>0.38888888888888901</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="14">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G31" s="18">
-        <f>((D31-F31)/D31)*-100</f>
+      <c r="G31" s="15">
+        <f t="shared" si="1"/>
         <v>8.5714285714287222</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G32" s="11">
-        <f>((D32-F32)/D32)*-100</f>
+      <c r="G32" s="9">
+        <f t="shared" si="1"/>
         <v>35.714285714285715</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="16" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="14">
         <v>0.47368421052631599</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="14">
         <v>1</v>
       </c>
-      <c r="G33" s="18">
-        <f>((D33-F33)/D33)*-100</f>
+      <c r="G33" s="15">
+        <f t="shared" si="1"/>
         <v>111.11111111111103</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G34" s="11">
-        <f>((D34-F34)/D34)*-100</f>
+      <c r="G34" s="9">
+        <f t="shared" si="1"/>
         <v>171.42857142857181</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="16" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="14">
         <v>0.26315789473684198</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="14">
         <v>1</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="14">
         <v>1.0714285714285701</v>
       </c>
-      <c r="G35" s="18">
-        <f>((D35-F35)/D35)*-100</f>
+      <c r="G35" s="15">
+        <f t="shared" si="1"/>
         <v>307.14285714285683</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10">
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
         <v>0.64285714285714302</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="16" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="17">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0</v>
-      </c>
-      <c r="F37" s="17">
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="10">
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="16" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="17">
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14">
         <v>0.44444444444444398</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="14">
         <v>0.32142857142857101</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="10">
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="16" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="17">
-        <v>0</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="14">
         <v>0.5</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10">
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="16" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="17">
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
         <v>0.61111111111111105</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="14">
         <v>0.5</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="16" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="17">
-        <v>0</v>
-      </c>
-      <c r="E45" s="17">
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="14">
         <v>0.25</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F46" s="10">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="16" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="17">
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F47" s="17">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18" t="s">
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="10">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="F48" s="10">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11" t="s">
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="16" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="17">
-        <v>0</v>
-      </c>
-      <c r="E49" s="17">
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
         <v>0.5</v>
       </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="18" t="s">
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="16" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="17">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F50" s="17">
-        <v>0</v>
-      </c>
-      <c r="G50" s="18" t="s">
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="14">
-        <v>0</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F51" s="14">
-        <v>0</v>
-      </c>
-      <c r="G51" s="15" t="s">
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="23"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="21">
         <v>1979</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="21">
         <v>1999</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="21">
         <v>2019</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="25">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="E54" s="28">
-        <v>0</v>
-      </c>
-      <c r="F54" s="28">
-        <v>0</v>
-      </c>
-      <c r="G54" s="29">
-        <f>((D54-F54)/D54)*-100</f>
+      <c r="E54" s="25">
+        <v>0</v>
+      </c>
+      <c r="F54" s="25">
+        <v>0</v>
+      </c>
+      <c r="G54" s="26">
+        <f t="shared" ref="G54:G61" si="2">((D54-F54)/D54)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>0.31034482758620702</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="F55" s="6">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
-        <f>((D55-F55)/D55)*-100</f>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="16" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="14">
         <v>0.31034482758620702</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="14">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="F56" s="17">
-        <v>0</v>
-      </c>
-      <c r="G56" s="18">
-        <f>((D56-F56)/D56)*-100</f>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9" t="s">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="8">
         <v>0.17241379310344801</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>0.24242424242424199</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="8">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G57" s="11">
-        <f>((D57-F57)/D57)*-100</f>
+      <c r="G57" s="9">
+        <f t="shared" si="2"/>
         <v>-67.777777777777686</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="16" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="14">
         <v>1.55172413793103</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="14">
         <v>0.90909090909090895</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="14">
         <v>0.72222222222222199</v>
       </c>
-      <c r="G58" s="18">
-        <f>((D58-F58)/D58)*-100</f>
+      <c r="G58" s="15">
+        <f t="shared" si="2"/>
         <v>-53.456790123456678</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>0.37931034482758602</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <v>0.57575757575757602</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="8">
         <v>0.44444444444444398</v>
       </c>
-      <c r="G59" s="11">
-        <f>((D59-F59)/D59)*-100</f>
+      <c r="G59" s="9">
+        <f t="shared" si="2"/>
         <v>17.171717171717106</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="16" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="14">
         <v>0.34482758620689702</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="14">
         <v>0.81818181818181801</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="14">
         <v>0.61111111111111105</v>
       </c>
-      <c r="G60" s="18">
-        <f>((D60-F60)/D60)*-100</f>
+      <c r="G60" s="15">
+        <f t="shared" si="2"/>
         <v>77.222222222221959</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="8">
         <v>6.8965517241379296E-2</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="8">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="8">
         <v>1.05555555555556</v>
       </c>
-      <c r="G61" s="11">
-        <f>((D61-F61)/D61)*-100</f>
+      <c r="G61" s="9">
+        <f t="shared" si="2"/>
         <v>1430.5555555555623</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="16" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="17">
-        <v>0</v>
-      </c>
-      <c r="E62" s="17">
+      <c r="D62" s="14">
+        <v>0</v>
+      </c>
+      <c r="E62" s="14">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="14">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="16" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="17">
-        <v>0</v>
-      </c>
-      <c r="E63" s="17">
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="14">
         <v>0.22222222222222199</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="14">
-        <v>0</v>
-      </c>
-      <c r="E64" s="14">
-        <v>0</v>
-      </c>
-      <c r="F64" s="14">
+      <c r="D64" s="11">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>0.10344827586206901</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>0.18181818181818199</v>
       </c>
-      <c r="F65" s="6">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
-        <f>((D65-F65)/D65)*-100</f>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" ref="G65:G101" si="3">((D65-F65)/D65)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="16" t="s">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="14">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="E66" s="17">
-        <v>0</v>
-      </c>
-      <c r="F66" s="17">
-        <v>0</v>
-      </c>
-      <c r="G66" s="18">
-        <f>((D66-F66)/D66)*-100</f>
+      <c r="E66" s="14">
+        <v>0</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0</v>
+      </c>
+      <c r="G66" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9" t="s">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="8">
         <v>0.20689655172413801</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="8">
         <v>0.51515151515151503</v>
       </c>
-      <c r="F67" s="10">
-        <v>0</v>
-      </c>
-      <c r="G67" s="11">
-        <f>((D67-F67)/D67)*-100</f>
+      <c r="F67" s="8">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="16" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="14">
         <v>0.62068965517241403</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="14">
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="F68" s="17">
-        <v>0</v>
-      </c>
-      <c r="G68" s="18">
-        <f>((D68-F68)/D68)*-100</f>
+      <c r="F68" s="14">
+        <v>0</v>
+      </c>
+      <c r="G68" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9" t="s">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="8">
         <v>6.8965517241379296E-2</v>
       </c>
-      <c r="E69" s="10">
-        <v>0</v>
-      </c>
-      <c r="F69" s="10">
-        <v>0</v>
-      </c>
-      <c r="G69" s="11">
-        <f>((D69-F69)/D69)*-100</f>
+      <c r="E69" s="8">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="16" t="s">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="14">
         <v>0.96551724137931005</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F70" s="17">
-        <v>0</v>
-      </c>
-      <c r="G70" s="18">
-        <f>((D70-F70)/D70)*-100</f>
+      <c r="F70" s="14">
+        <v>0</v>
+      </c>
+      <c r="G70" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9" t="s">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="8">
         <v>0.75862068965517204</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="8">
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="F71" s="10">
-        <v>0</v>
-      </c>
-      <c r="G71" s="11">
-        <f>((D71-F71)/D71)*-100</f>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="16" t="s">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="14">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="E72" s="17">
-        <v>0</v>
-      </c>
-      <c r="F72" s="17">
-        <v>0</v>
-      </c>
-      <c r="G72" s="18">
-        <f>((D72-F72)/D72)*-100</f>
+      <c r="E72" s="14">
+        <v>0</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0</v>
+      </c>
+      <c r="G72" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="8">
         <v>0.10344827586206901</v>
       </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="10">
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
-        <f>((D73-F73)/D73)*-100</f>
+      <c r="E73" s="8">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="16" t="s">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="14">
         <v>0.51724137931034497</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="14">
         <v>6.0606060606060601E-2</v>
       </c>
-      <c r="F74" s="17">
-        <v>0</v>
-      </c>
-      <c r="G74" s="18">
-        <f>((D74-F74)/D74)*-100</f>
+      <c r="F74" s="14">
+        <v>0</v>
+      </c>
+      <c r="G74" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9" t="s">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="8">
         <v>0.13793103448275901</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="8">
         <v>0.24242424242424199</v>
       </c>
-      <c r="F75" s="10">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
-        <f>((D75-F75)/D75)*-100</f>
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="16" t="s">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="14">
         <v>0.17241379310344801</v>
       </c>
-      <c r="E76" s="17">
-        <v>0</v>
-      </c>
-      <c r="F76" s="17">
-        <v>0</v>
-      </c>
-      <c r="G76" s="18">
-        <f>((D76-F76)/D76)*-100</f>
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9" t="s">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="8">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="E77" s="10">
-        <v>0</v>
-      </c>
-      <c r="F77" s="10">
-        <v>0</v>
-      </c>
-      <c r="G77" s="11">
-        <f>((D77-F77)/D77)*-100</f>
+      <c r="E77" s="8">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0</v>
+      </c>
+      <c r="G77" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="16" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="14">
         <v>0.17241379310344801</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="14">
         <v>0.30303030303030298</v>
       </c>
-      <c r="F78" s="17">
-        <v>0</v>
-      </c>
-      <c r="G78" s="18">
-        <f>((D78-F78)/D78)*-100</f>
+      <c r="F78" s="14">
+        <v>0</v>
+      </c>
+      <c r="G78" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9" t="s">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="8">
         <v>0.20689655172413801</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="8">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="F79" s="10">
-        <v>0</v>
-      </c>
-      <c r="G79" s="11">
-        <f>((D79-F79)/D79)*-100</f>
+      <c r="F79" s="8">
+        <v>0</v>
+      </c>
+      <c r="G79" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="16" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="14">
         <v>0.55172413793103403</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="14">
         <v>1.72727272727273</v>
       </c>
-      <c r="F80" s="17">
-        <v>0</v>
-      </c>
-      <c r="G80" s="18">
-        <f>((D80-F80)/D80)*-100</f>
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+      <c r="G80" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9" t="s">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="8">
         <v>0.31034482758620702</v>
       </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="10">
-        <v>0</v>
-      </c>
-      <c r="G81" s="11">
-        <f>((D81-F81)/D81)*-100</f>
+      <c r="E81" s="8">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0</v>
+      </c>
+      <c r="G81" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="16" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="14">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="E82" s="17">
-        <v>0</v>
-      </c>
-      <c r="F82" s="17">
-        <v>0</v>
-      </c>
-      <c r="G82" s="18">
-        <f>((D82-F82)/D82)*-100</f>
+      <c r="E82" s="14">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+      <c r="G82" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="8">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="8">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F83" s="10">
-        <v>0</v>
-      </c>
-      <c r="G83" s="11">
-        <f>((D83-F83)/D83)*-100</f>
+      <c r="F83" s="8">
+        <v>0</v>
+      </c>
+      <c r="G83" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="16" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="14">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="E84" s="17">
-        <v>0</v>
-      </c>
-      <c r="F84" s="17">
-        <v>0</v>
-      </c>
-      <c r="G84" s="18">
-        <f>((D84-F84)/D84)*-100</f>
+      <c r="E84" s="14">
+        <v>0</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0</v>
+      </c>
+      <c r="G84" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9" t="s">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="8">
         <v>0.13793103448275901</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="8">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F85" s="10">
-        <v>0</v>
-      </c>
-      <c r="G85" s="11">
-        <f>((D85-F85)/D85)*-100</f>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="16" t="s">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D86" s="14">
         <v>0.58620689655172398</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86" s="14">
         <v>0.24242424242424199</v>
       </c>
-      <c r="F86" s="17">
-        <v>0</v>
-      </c>
-      <c r="G86" s="18">
-        <f>((D86-F86)/D86)*-100</f>
+      <c r="F86" s="14">
+        <v>0</v>
+      </c>
+      <c r="G86" s="15">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9" t="s">
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="8">
         <v>0.68965517241379304</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="8">
         <v>0.54545454545454497</v>
       </c>
-      <c r="F87" s="10">
-        <v>0</v>
-      </c>
-      <c r="G87" s="11">
-        <f>((D87-F87)/D87)*-100</f>
+      <c r="F87" s="8">
+        <v>0</v>
+      </c>
+      <c r="G87" s="9">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="16" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="14">
         <v>1.86206896551724</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="14">
         <v>1.3333333333333299</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="14">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G88" s="18">
-        <f>((D88-F88)/D88)*-100</f>
+      <c r="G88" s="15">
+        <f t="shared" si="3"/>
         <v>-97.016460905349788</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9" t="s">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="8">
         <v>0.65517241379310298</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="8">
         <v>0.39393939393939398</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="8">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G89" s="11">
-        <f>((D89-F89)/D89)*-100</f>
+      <c r="G89" s="9">
+        <f t="shared" si="3"/>
         <v>-91.520467836257296</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="16" t="s">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="14">
         <v>1</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="14">
         <v>0.39393939393939398</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="14">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G90" s="18">
-        <f>((D90-F90)/D90)*-100</f>
+      <c r="G90" s="15">
+        <f t="shared" si="3"/>
         <v>-88.8888888888889</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9" t="s">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="8">
         <v>0.75862068965517204</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="8">
         <v>1.4242424242424201</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="8">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G91" s="11">
-        <f>((D91-F91)/D91)*-100</f>
+      <c r="G91" s="9">
+        <f t="shared" si="3"/>
         <v>-85.353535353535364</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="16" t="s">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D92" s="14">
         <v>0.48275862068965503</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="14">
         <v>0.63636363636363602</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="14">
         <v>0.22222222222222199</v>
       </c>
-      <c r="G92" s="18">
-        <f>((D92-F92)/D92)*-100</f>
+      <c r="G92" s="15">
+        <f t="shared" si="3"/>
         <v>-53.968253968253997</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9" t="s">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="8">
         <v>0.41379310344827602</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="8">
         <v>0.18181818181818199</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="8">
         <v>0.22222222222222199</v>
       </c>
-      <c r="G93" s="11">
-        <f>((D93-F93)/D93)*-100</f>
+      <c r="G93" s="9">
+        <f t="shared" si="3"/>
         <v>-46.296296296296376</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="16" t="s">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="14">
         <v>0.10344827586206901</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="14">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G94" s="18">
-        <f>((D94-F94)/D94)*-100</f>
+      <c r="G94" s="15">
+        <f t="shared" si="3"/>
         <v>-46.296296296296276</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9" t="s">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="8">
         <v>0.68965517241379304</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="8">
         <v>0.36363636363636398</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="8">
         <v>0.44444444444444398</v>
       </c>
-      <c r="G95" s="11">
-        <f>((D95-F95)/D95)*-100</f>
+      <c r="G95" s="9">
+        <f t="shared" si="3"/>
         <v>-35.555555555555621</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="16" t="s">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D96" s="14">
         <v>0.17241379310344801</v>
       </c>
-      <c r="E96" s="17">
-        <v>0</v>
-      </c>
-      <c r="F96" s="17">
+      <c r="E96" s="14">
+        <v>0</v>
+      </c>
+      <c r="F96" s="14">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G96" s="18">
-        <f>((D96-F96)/D96)*-100</f>
+      <c r="G96" s="15">
+        <f t="shared" si="3"/>
         <v>-35.555555555555522</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="9" t="s">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="8">
         <v>0.62068965517241403</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="8">
         <v>0.36363636363636398</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="8">
         <v>0.44444444444444398</v>
       </c>
-      <c r="G97" s="11">
-        <f>((D97-F97)/D97)*-100</f>
+      <c r="G97" s="9">
+        <f t="shared" si="3"/>
         <v>-28.395061728395167</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="16" t="s">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D98" s="17">
+      <c r="D98" s="14">
         <v>6.8965517241379296E-2</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="14">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="14">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G98" s="18">
-        <f>((D98-F98)/D98)*-100</f>
+      <c r="G98" s="15">
+        <f t="shared" si="3"/>
         <v>-19.444444444444361</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9" t="s">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="8">
         <v>0.55172413793103403</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="8">
         <v>0.18181818181818199</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="8">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G99" s="11">
-        <f>((D99-F99)/D99)*-100</f>
+      <c r="G99" s="9">
+        <f t="shared" si="3"/>
         <v>0.69444444444461184</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="16" t="s">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100" s="14">
         <v>6.8965517241379296E-2</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100" s="14">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="14">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G100" s="18">
-        <f>((D100-F100)/D100)*-100</f>
+      <c r="G100" s="15">
+        <f t="shared" si="3"/>
         <v>61.111111111110972</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9" t="s">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="8">
         <v>0.27586206896551702</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="8">
         <v>0.42424242424242398</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="8">
         <v>0.61111111111111105</v>
       </c>
-      <c r="G101" s="11">
-        <f>((D101-F101)/D101)*-100</f>
+      <c r="G101" s="9">
+        <f t="shared" si="3"/>
         <v>121.52777777777794</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="16" t="s">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="17">
-        <v>0</v>
-      </c>
-      <c r="E102" s="17">
-        <v>0</v>
-      </c>
-      <c r="F102" s="17">
+      <c r="D102" s="14">
+        <v>0</v>
+      </c>
+      <c r="E102" s="14">
+        <v>0</v>
+      </c>
+      <c r="F102" s="14">
         <v>0.38888888888888901</v>
       </c>
-      <c r="G102" s="18" t="s">
+      <c r="G102" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9" t="s">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="10">
-        <v>0</v>
-      </c>
-      <c r="E103" s="10">
-        <v>0</v>
-      </c>
-      <c r="F103" s="10">
+      <c r="D103" s="8">
+        <v>0</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0</v>
+      </c>
+      <c r="F103" s="8">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="16" t="s">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="17">
-        <v>0</v>
-      </c>
-      <c r="E104" s="17">
-        <v>0</v>
-      </c>
-      <c r="F104" s="17">
+      <c r="D104" s="14">
+        <v>0</v>
+      </c>
+      <c r="E104" s="14">
+        <v>0</v>
+      </c>
+      <c r="F104" s="14">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G104" s="18" t="s">
+      <c r="G104" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9" t="s">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D105" s="10">
-        <v>0</v>
-      </c>
-      <c r="E105" s="10">
-        <v>0</v>
-      </c>
-      <c r="F105" s="10">
+      <c r="D105" s="8">
+        <v>0</v>
+      </c>
+      <c r="E105" s="8">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
         <v>0.22222222222222199</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="G105" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="16" t="s">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D106" s="17">
-        <v>0</v>
-      </c>
-      <c r="E106" s="17">
-        <v>0</v>
-      </c>
-      <c r="F106" s="17">
+      <c r="D106" s="14">
+        <v>0</v>
+      </c>
+      <c r="E106" s="14">
+        <v>0</v>
+      </c>
+      <c r="F106" s="14">
         <v>0.16666666666666699</v>
       </c>
-      <c r="G106" s="18" t="s">
+      <c r="G106" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9" t="s">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D107" s="10">
-        <v>0</v>
-      </c>
-      <c r="E107" s="10">
+      <c r="D107" s="8">
+        <v>0</v>
+      </c>
+      <c r="E107" s="8">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="F107" s="10">
-        <v>0</v>
-      </c>
-      <c r="G107" s="11" t="s">
+      <c r="F107" s="8">
+        <v>0</v>
+      </c>
+      <c r="G107" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="16" t="s">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D108" s="17">
-        <v>0</v>
-      </c>
-      <c r="E108" s="17">
+      <c r="D108" s="14">
+        <v>0</v>
+      </c>
+      <c r="E108" s="14">
         <v>6.0606060606060601E-2</v>
       </c>
-      <c r="F108" s="17">
-        <v>0</v>
-      </c>
-      <c r="G108" s="18" t="s">
+      <c r="F108" s="14">
+        <v>0</v>
+      </c>
+      <c r="G108" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9" t="s">
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="10">
-        <v>0</v>
-      </c>
-      <c r="E109" s="10">
+      <c r="D109" s="8">
+        <v>0</v>
+      </c>
+      <c r="E109" s="8">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="F109" s="10">
-        <v>0</v>
-      </c>
-      <c r="G109" s="11" t="s">
+      <c r="F109" s="8">
+        <v>0</v>
+      </c>
+      <c r="G109" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="16" t="s">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D110" s="17">
-        <v>0</v>
-      </c>
-      <c r="E110" s="17">
+      <c r="D110" s="14">
+        <v>0</v>
+      </c>
+      <c r="E110" s="14">
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="F110" s="17">
-        <v>0</v>
-      </c>
-      <c r="G110" s="18" t="s">
+      <c r="F110" s="14">
+        <v>0</v>
+      </c>
+      <c r="G110" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13" t="s">
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D111" s="14">
-        <v>0</v>
-      </c>
-      <c r="E111" s="14">
+      <c r="D111" s="11">
+        <v>0</v>
+      </c>
+      <c r="E111" s="11">
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="F111" s="14">
-        <v>0</v>
-      </c>
-      <c r="G111" s="15" t="s">
+      <c r="F111" s="11">
+        <v>0</v>
+      </c>
+      <c r="G111" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="23"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="20"/>
     </row>
     <row r="113" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="24" t="s">
+      <c r="A113" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="21">
         <v>1979</v>
       </c>
-      <c r="E113" s="24">
+      <c r="E113" s="21">
         <v>1999</v>
       </c>
-      <c r="F113" s="24">
+      <c r="F113" s="21">
         <v>2019</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="28">
-        <v>0</v>
-      </c>
-      <c r="E114" s="28">
+      <c r="D114" s="25">
+        <v>0</v>
+      </c>
+      <c r="E114" s="25">
         <v>3.2258064516128997E-2</v>
       </c>
-      <c r="F114" s="28">
-        <v>0</v>
-      </c>
-      <c r="G114" s="29" t="s">
+      <c r="F114" s="25">
+        <v>0</v>
+      </c>
+      <c r="G114" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
-      <c r="B115" s="4" t="s">
+      <c r="A115" s="28"/>
+      <c r="B115" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="5">
         <v>2.9411764705882401E-2</v>
       </c>
-      <c r="E115" s="6">
-        <v>0</v>
-      </c>
-      <c r="F115" s="6">
-        <v>0</v>
-      </c>
-      <c r="G115" s="7">
+      <c r="E115" s="5">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="6">
         <f>((D115-F115)/D115)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="16" t="s">
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="14">
         <v>0.29411764705882398</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="14">
         <v>0.16129032258064499</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="14">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="15">
         <f>((D116-F116)/D116)*-100</f>
         <v>-87.857142857142875</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9" t="s">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="8">
         <v>1.8529411764705901</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="8">
         <v>2.32258064516129</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F117" s="8">
         <v>1.25</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="9">
         <f>((D117-F117)/D117)*-100</f>
         <v>-32.539682539682609</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="16" t="s">
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="14">
         <v>0.26470588235294101</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="14">
         <v>0.25806451612903197</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="14">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="15">
         <f>((D118-F118)/D118)*-100</f>
         <v>48.41269841269856</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9" t="s">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="8">
         <v>8.8235294117647106E-2</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="8">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F119" s="10">
+      <c r="F119" s="8">
         <v>0.17857142857142899</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="9">
         <f>((D119-F119)/D119)*-100</f>
         <v>102.38095238095275</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="16" t="s">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D120" s="17">
-        <v>0</v>
-      </c>
-      <c r="E120" s="17">
+      <c r="D120" s="14">
+        <v>0</v>
+      </c>
+      <c r="E120" s="14">
         <v>0.12903225806451599</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F120" s="14">
         <v>0.25</v>
       </c>
-      <c r="G120" s="18" t="s">
+      <c r="G120" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9" t="s">
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D121" s="10">
-        <v>0</v>
-      </c>
-      <c r="E121" s="10">
-        <v>0</v>
-      </c>
-      <c r="F121" s="10">
+      <c r="D121" s="8">
+        <v>0</v>
+      </c>
+      <c r="E121" s="8">
+        <v>0</v>
+      </c>
+      <c r="F121" s="8">
         <v>0.107142857142857</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="16" t="s">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D122" s="17">
-        <v>0</v>
-      </c>
-      <c r="E122" s="17">
+      <c r="D122" s="14">
+        <v>0</v>
+      </c>
+      <c r="E122" s="14">
         <v>0.16129032258064499</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="14">
         <v>0.53571428571428603</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G122" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="16" t="s">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D123" s="17">
-        <v>0</v>
-      </c>
-      <c r="E123" s="17">
-        <v>0</v>
-      </c>
-      <c r="F123" s="17">
+      <c r="D123" s="14">
+        <v>0</v>
+      </c>
+      <c r="E123" s="14">
+        <v>0</v>
+      </c>
+      <c r="F123" s="14">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G123" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="8"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13" t="s">
+      <c r="A124" s="28"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D124" s="14">
-        <v>0</v>
-      </c>
-      <c r="E124" s="14">
+      <c r="D124" s="11">
+        <v>0</v>
+      </c>
+      <c r="E124" s="11">
         <v>3.2258064516128997E-2</v>
       </c>
-      <c r="F124" s="14">
-        <v>0</v>
-      </c>
-      <c r="G124" s="15" t="s">
+      <c r="F124" s="11">
+        <v>0</v>
+      </c>
+      <c r="G124" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="8"/>
-      <c r="B125" s="4" t="s">
+      <c r="A125" s="28"/>
+      <c r="B125" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="5">
         <v>0.35294117647058798</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="5">
         <v>6.4516129032258104E-2</v>
       </c>
-      <c r="F125" s="6">
-        <v>0</v>
-      </c>
-      <c r="G125" s="7">
-        <f>((D125-F125)/D125)*-100</f>
+      <c r="F125" s="5">
+        <v>0</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" ref="G125:G153" si="4">((D125-F125)/D125)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="16" t="s">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="17">
+      <c r="D126" s="14">
         <v>0.20588235294117599</v>
       </c>
-      <c r="E126" s="17">
-        <v>0</v>
-      </c>
-      <c r="F126" s="17">
-        <v>0</v>
-      </c>
-      <c r="G126" s="18">
-        <f>((D126-F126)/D126)*-100</f>
+      <c r="E126" s="14">
+        <v>0</v>
+      </c>
+      <c r="F126" s="14">
+        <v>0</v>
+      </c>
+      <c r="G126" s="15">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9" t="s">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="8">
         <v>0.17647058823529399</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="8">
         <v>0.19354838709677399</v>
       </c>
-      <c r="F127" s="10">
-        <v>0</v>
-      </c>
-      <c r="G127" s="11">
-        <f>((D127-F127)/D127)*-100</f>
+      <c r="F127" s="8">
+        <v>0</v>
+      </c>
+      <c r="G127" s="9">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="16" t="s">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D128" s="17">
+      <c r="D128" s="14">
         <v>5.8823529411764698E-2</v>
       </c>
-      <c r="E128" s="17">
+      <c r="E128" s="14">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F128" s="17">
-        <v>0</v>
-      </c>
-      <c r="G128" s="18">
-        <f>((D128-F128)/D128)*-100</f>
+      <c r="F128" s="14">
+        <v>0</v>
+      </c>
+      <c r="G128" s="15">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="9" t="s">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="8">
         <v>8.8235294117647106E-2</v>
       </c>
-      <c r="E129" s="10">
-        <v>0</v>
-      </c>
-      <c r="F129" s="10">
-        <v>0</v>
-      </c>
-      <c r="G129" s="11">
-        <f>((D129-F129)/D129)*-100</f>
+      <c r="E129" s="8">
+        <v>0</v>
+      </c>
+      <c r="F129" s="8">
+        <v>0</v>
+      </c>
+      <c r="G129" s="9">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="16" t="s">
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D130" s="17">
+      <c r="D130" s="14">
         <v>0.70588235294117696</v>
       </c>
-      <c r="E130" s="17">
+      <c r="E130" s="14">
         <v>0.38709677419354799</v>
       </c>
-      <c r="F130" s="17">
-        <v>0</v>
-      </c>
-      <c r="G130" s="18">
-        <f>((D130-F130)/D130)*-100</f>
+      <c r="F130" s="14">
+        <v>0</v>
+      </c>
+      <c r="G130" s="15">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="9" t="s">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="8">
         <v>8.8235294117647106E-2</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="8">
         <v>3.2258064516128997E-2</v>
       </c>
-      <c r="F131" s="10">
-        <v>0</v>
-      </c>
-      <c r="G131" s="11">
-        <f>((D131-F131)/D131)*-100</f>
+      <c r="F131" s="8">
+        <v>0</v>
+      </c>
+      <c r="G131" s="9">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="16" t="s">
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D132" s="17">
+      <c r="D132" s="14">
         <v>1</v>
       </c>
-      <c r="E132" s="17">
+      <c r="E132" s="14">
         <v>0.225806451612903</v>
       </c>
-      <c r="F132" s="17">
-        <v>0</v>
-      </c>
-      <c r="G132" s="18">
-        <f>((D132-F132)/D132)*-100</f>
+      <c r="F132" s="14">
+        <v>0</v>
+      </c>
+      <c r="G132" s="15">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="9" t="s">
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="8">
         <v>2.9411764705882401E-2</v>
       </c>
-      <c r="E133" s="10">
-        <v>0</v>
-      </c>
-      <c r="F133" s="10">
-        <v>0</v>
-      </c>
-      <c r="G133" s="11">
-        <f>((D133-F133)/D133)*-100</f>
+      <c r="E133" s="8">
+        <v>0</v>
+      </c>
+      <c r="F133" s="8">
+        <v>0</v>
+      </c>
+      <c r="G133" s="9">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="16" t="s">
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D134" s="17">
+      <c r="D134" s="14">
         <v>0.58823529411764697</v>
       </c>
-      <c r="E134" s="17">
+      <c r="E134" s="14">
         <v>0.19354838709677399</v>
       </c>
-      <c r="F134" s="17">
-        <v>0</v>
-      </c>
-      <c r="G134" s="18">
-        <f>((D134-F134)/D134)*-100</f>
+      <c r="F134" s="14">
+        <v>0</v>
+      </c>
+      <c r="G134" s="15">
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="9" t="s">
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="8">
         <v>1.0882352941176501</v>
       </c>
-      <c r="E135" s="10">
+      <c r="E135" s="8">
         <v>0.483870967741935</v>
       </c>
-      <c r="F135" s="10">
+      <c r="F135" s="8">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G135" s="11">
-        <f>((D135-F135)/D135)*-100</f>
+      <c r="G135" s="9">
+        <f t="shared" si="4"/>
         <v>-96.718146718146713</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="16" t="s">
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="17">
+      <c r="D136" s="14">
         <v>0.88235294117647101</v>
       </c>
-      <c r="E136" s="17">
+      <c r="E136" s="14">
         <v>0.58064516129032295</v>
       </c>
-      <c r="F136" s="17">
+      <c r="F136" s="14">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G136" s="18">
-        <f>((D136-F136)/D136)*-100</f>
+      <c r="G136" s="15">
+        <f t="shared" si="4"/>
         <v>-95.952380952380949</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="9" t="s">
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="8">
         <v>0.70588235294117696</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="8">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F137" s="10">
+      <c r="F137" s="8">
         <v>0.107142857142857</v>
       </c>
-      <c r="G137" s="11">
-        <f>((D137-F137)/D137)*-100</f>
+      <c r="G137" s="9">
+        <f t="shared" si="4"/>
         <v>-84.821428571428598</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="16" t="s">
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D138" s="17">
+      <c r="D138" s="14">
         <v>0.41176470588235298</v>
       </c>
-      <c r="E138" s="17">
+      <c r="E138" s="14">
         <v>0.12903225806451599</v>
       </c>
-      <c r="F138" s="17">
+      <c r="F138" s="14">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G138" s="18">
-        <f>((D138-F138)/D138)*-100</f>
+      <c r="G138" s="15">
+        <f t="shared" si="4"/>
         <v>-82.653061224489804</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="9" t="s">
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="8">
         <v>0.41176470588235298</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="8">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F139" s="10">
+      <c r="F139" s="8">
         <v>0.107142857142857</v>
       </c>
-      <c r="G139" s="11">
-        <f>((D139-F139)/D139)*-100</f>
+      <c r="G139" s="9">
+        <f t="shared" si="4"/>
         <v>-73.979591836734741</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="16" t="s">
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="17">
+      <c r="D140" s="14">
         <v>0.47058823529411797</v>
       </c>
-      <c r="E140" s="17">
+      <c r="E140" s="14">
         <v>0.12903225806451599</v>
       </c>
-      <c r="F140" s="17">
+      <c r="F140" s="14">
         <v>0.214285714285714</v>
       </c>
-      <c r="G140" s="18">
-        <f>((D140-F140)/D140)*-100</f>
+      <c r="G140" s="15">
+        <f t="shared" si="4"/>
         <v>-54.464285714285808</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="9" t="s">
+      <c r="A141" s="28"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="8">
         <v>0.79411764705882304</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="8">
         <v>0.35483870967741898</v>
       </c>
-      <c r="F141" s="10">
+      <c r="F141" s="8">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G141" s="11">
-        <f>((D141-F141)/D141)*-100</f>
+      <c r="G141" s="9">
+        <f t="shared" si="4"/>
         <v>-50.529100529100482</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="16" t="s">
+      <c r="A142" s="28"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D142" s="17">
+      <c r="D142" s="14">
         <v>0.32352941176470601</v>
       </c>
-      <c r="E142" s="17">
+      <c r="E142" s="14">
         <v>0.67741935483870996</v>
       </c>
-      <c r="F142" s="17">
+      <c r="F142" s="14">
         <v>0.17857142857142899</v>
       </c>
-      <c r="G142" s="18">
-        <f>((D142-F142)/D142)*-100</f>
+      <c r="G142" s="15">
+        <f t="shared" si="4"/>
         <v>-44.805194805194695</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="9" t="s">
+      <c r="A143" s="28"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="8">
         <v>2.97058823529412</v>
       </c>
-      <c r="E143" s="10">
+      <c r="E143" s="8">
         <v>3.0322580645161299</v>
       </c>
-      <c r="F143" s="10">
+      <c r="F143" s="8">
         <v>1.9285714285714299</v>
       </c>
-      <c r="G143" s="11">
-        <f>((D143-F143)/D143)*-100</f>
+      <c r="G143" s="9">
+        <f t="shared" si="4"/>
         <v>-35.077793493635085</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="16" t="s">
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D144" s="17">
+      <c r="D144" s="14">
         <v>0.58823529411764697</v>
       </c>
-      <c r="E144" s="17">
+      <c r="E144" s="14">
         <v>0.35483870967741898</v>
       </c>
-      <c r="F144" s="17">
+      <c r="F144" s="14">
         <v>0.42857142857142899</v>
       </c>
-      <c r="G144" s="18">
-        <f>((D144-F144)/D144)*-100</f>
+      <c r="G144" s="15">
+        <f t="shared" si="4"/>
         <v>-27.142857142857057</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="9" t="s">
+      <c r="A145" s="28"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="8">
         <v>0.29411764705882398</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E145" s="8">
         <v>0.12903225806451599</v>
       </c>
-      <c r="F145" s="10">
+      <c r="F145" s="8">
         <v>0.25</v>
       </c>
-      <c r="G145" s="11">
-        <f>((D145-F145)/D145)*-100</f>
+      <c r="G145" s="9">
+        <f t="shared" si="4"/>
         <v>-15.00000000000013</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="16" t="s">
+      <c r="A146" s="28"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D146" s="17">
+      <c r="D146" s="14">
         <v>0.11764705882352899</v>
       </c>
-      <c r="E146" s="17">
+      <c r="E146" s="14">
         <v>0.16129032258064499</v>
       </c>
-      <c r="F146" s="17">
+      <c r="F146" s="14">
         <v>0.107142857142857</v>
       </c>
-      <c r="G146" s="18">
-        <f>((D146-F146)/D146)*-100</f>
+      <c r="G146" s="15">
+        <f t="shared" si="4"/>
         <v>-8.9285714285712281</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="9" t="s">
+      <c r="A147" s="28"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D147" s="10">
+      <c r="D147" s="8">
         <v>8.8235294117647106E-2</v>
       </c>
-      <c r="E147" s="10">
-        <v>0</v>
-      </c>
-      <c r="F147" s="10">
+      <c r="E147" s="8">
+        <v>0</v>
+      </c>
+      <c r="F147" s="8">
         <v>0.107142857142857</v>
       </c>
-      <c r="G147" s="11">
-        <f>((D147-F147)/D147)*-100</f>
+      <c r="G147" s="9">
+        <f t="shared" si="4"/>
         <v>21.4285714285712</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="16" t="s">
+      <c r="A148" s="28"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="17">
+      <c r="D148" s="14">
         <v>8.8235294117647106E-2</v>
       </c>
-      <c r="E148" s="17">
+      <c r="E148" s="14">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F148" s="17">
+      <c r="F148" s="14">
         <v>0.214285714285714</v>
       </c>
-      <c r="G148" s="18">
-        <f>((D148-F148)/D148)*-100</f>
+      <c r="G148" s="15">
+        <f t="shared" si="4"/>
         <v>142.85714285714241</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="9" t="s">
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D149" s="10">
+      <c r="D149" s="8">
         <v>0.29411764705882398</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="8">
         <v>0.74193548387096797</v>
       </c>
-      <c r="F149" s="10">
+      <c r="F149" s="8">
         <v>0.78571428571428603</v>
       </c>
-      <c r="G149" s="11">
-        <f>((D149-F149)/D149)*-100</f>
+      <c r="G149" s="9">
+        <f t="shared" si="4"/>
         <v>167.14285714285683</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="16" t="s">
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D150" s="17">
+      <c r="D150" s="14">
         <v>2.9411764705882401E-2</v>
       </c>
-      <c r="E150" s="17">
-        <v>0</v>
-      </c>
-      <c r="F150" s="17">
+      <c r="E150" s="14">
+        <v>0</v>
+      </c>
+      <c r="F150" s="14">
         <v>0.107142857142857</v>
       </c>
-      <c r="G150" s="18">
-        <f>((D150-F150)/D150)*-100</f>
+      <c r="G150" s="15">
+        <f t="shared" si="4"/>
         <v>264.2857142857132</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="9" t="s">
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D151" s="10">
+      <c r="D151" s="8">
         <v>8.8235294117647106E-2</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="8">
         <v>0.25806451612903197</v>
       </c>
-      <c r="F151" s="10">
+      <c r="F151" s="8">
         <v>0.46428571428571402</v>
       </c>
-      <c r="G151" s="11">
-        <f>((D151-F151)/D151)*-100</f>
+      <c r="G151" s="9">
+        <f t="shared" si="4"/>
         <v>426.19047619047558</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="16" t="s">
+      <c r="A152" s="28"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D152" s="17">
+      <c r="D152" s="14">
         <v>0.14705882352941199</v>
       </c>
-      <c r="E152" s="17">
+      <c r="E152" s="14">
         <v>1.06451612903226</v>
       </c>
-      <c r="F152" s="17">
+      <c r="F152" s="14">
         <v>0.85714285714285698</v>
       </c>
-      <c r="G152" s="18">
-        <f>((D152-F152)/D152)*-100</f>
+      <c r="G152" s="15">
+        <f t="shared" si="4"/>
         <v>482.85714285714187</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="9" t="s">
+      <c r="A153" s="28"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D153" s="8">
         <v>2.9411764705882401E-2</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="8">
         <v>3.2258064516128997E-2</v>
       </c>
-      <c r="F153" s="10">
+      <c r="F153" s="8">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G153" s="11">
-        <f>((D153-F153)/D153)*-100</f>
+      <c r="G153" s="9">
+        <f t="shared" si="4"/>
         <v>871.42857142857065</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="16" t="s">
+      <c r="A154" s="28"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D154" s="17">
-        <v>0</v>
-      </c>
-      <c r="E154" s="17">
-        <v>0</v>
-      </c>
-      <c r="F154" s="17">
+      <c r="D154" s="14">
+        <v>0</v>
+      </c>
+      <c r="E154" s="14">
+        <v>0</v>
+      </c>
+      <c r="F154" s="14">
         <v>0.67857142857142905</v>
       </c>
-      <c r="G154" s="18" t="s">
+      <c r="G154" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="9" t="s">
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D155" s="10">
-        <v>0</v>
-      </c>
-      <c r="E155" s="10">
-        <v>0</v>
-      </c>
-      <c r="F155" s="10">
+      <c r="D155" s="8">
+        <v>0</v>
+      </c>
+      <c r="E155" s="8">
+        <v>0</v>
+      </c>
+      <c r="F155" s="8">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G155" s="11" t="s">
+      <c r="G155" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="16" t="s">
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="17">
-        <v>0</v>
-      </c>
-      <c r="E156" s="17">
-        <v>0</v>
-      </c>
-      <c r="F156" s="17">
+      <c r="D156" s="14">
+        <v>0</v>
+      </c>
+      <c r="E156" s="14">
+        <v>0</v>
+      </c>
+      <c r="F156" s="14">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G156" s="18" t="s">
+      <c r="G156" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="9" t="s">
+      <c r="A157" s="28"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D157" s="10">
-        <v>0</v>
-      </c>
-      <c r="E157" s="10">
-        <v>0</v>
-      </c>
-      <c r="F157" s="10">
+      <c r="D157" s="8">
+        <v>0</v>
+      </c>
+      <c r="E157" s="8">
+        <v>0</v>
+      </c>
+      <c r="F157" s="8">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G157" s="11" t="s">
+      <c r="G157" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="16" t="s">
+      <c r="A158" s="28"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D158" s="17">
-        <v>0</v>
-      </c>
-      <c r="E158" s="17">
-        <v>0</v>
-      </c>
-      <c r="F158" s="17">
+      <c r="D158" s="14">
+        <v>0</v>
+      </c>
+      <c r="E158" s="14">
+        <v>0</v>
+      </c>
+      <c r="F158" s="14">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G158" s="18" t="s">
+      <c r="G158" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="9" t="s">
+      <c r="A159" s="28"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D159" s="10">
-        <v>0</v>
-      </c>
-      <c r="E159" s="10">
-        <v>0</v>
-      </c>
-      <c r="F159" s="10">
+      <c r="D159" s="8">
+        <v>0</v>
+      </c>
+      <c r="E159" s="8">
+        <v>0</v>
+      </c>
+      <c r="F159" s="8">
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="G159" s="11" t="s">
+      <c r="G159" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="16" t="s">
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D160" s="17">
-        <v>0</v>
-      </c>
-      <c r="E160" s="17">
-        <v>0</v>
-      </c>
-      <c r="F160" s="17">
+      <c r="D160" s="14">
+        <v>0</v>
+      </c>
+      <c r="E160" s="14">
+        <v>0</v>
+      </c>
+      <c r="F160" s="14">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G160" s="18" t="s">
+      <c r="G160" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="9" t="s">
+      <c r="A161" s="28"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D161" s="10">
-        <v>0</v>
-      </c>
-      <c r="E161" s="10">
+      <c r="D161" s="8">
+        <v>0</v>
+      </c>
+      <c r="E161" s="8">
         <v>0.19354838709677399</v>
       </c>
-      <c r="F161" s="10">
-        <v>0</v>
-      </c>
-      <c r="G161" s="11" t="s">
+      <c r="F161" s="8">
+        <v>0</v>
+      </c>
+      <c r="G161" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="16" t="s">
+      <c r="A162" s="28"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D162" s="17">
-        <v>0</v>
-      </c>
-      <c r="E162" s="17">
+      <c r="D162" s="14">
+        <v>0</v>
+      </c>
+      <c r="E162" s="14">
         <v>3.2258064516128997E-2</v>
       </c>
-      <c r="F162" s="17">
-        <v>0</v>
-      </c>
-      <c r="G162" s="18" t="s">
+      <c r="F162" s="14">
+        <v>0</v>
+      </c>
+      <c r="G162" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13" t="s">
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D163" s="14">
-        <v>0</v>
-      </c>
-      <c r="E163" s="14">
+      <c r="D163" s="11">
+        <v>0</v>
+      </c>
+      <c r="E163" s="11">
         <v>6.4516129032258104E-2</v>
       </c>
-      <c r="F163" s="14">
-        <v>0</v>
-      </c>
-      <c r="G163" s="15" t="s">
+      <c r="F163" s="11">
+        <v>0</v>
+      </c>
+      <c r="G163" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4613,6 +4613,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -4841,22 +4856,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57CCF544-D6E5-42F6-A35F-3D4F2EBA47AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202A38C9-2EAB-4F2A-83A0-C7DD5A2DA12E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C6C962-298D-442F-913D-3477D7E61B99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4873,29 +4898,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202A38C9-2EAB-4F2A-83A0-C7DD5A2DA12E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57CCF544-D6E5-42F6-A35F-3D4F2EBA47AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/species_table_pct.xlsx
+++ b/species_table_pct.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{AB9EA1FD-C9F8-4EF7-9C98-EC9C7CE3415D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8FF34540-4FC7-4C1D-880E-51A76D1BD39A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{139848B6-F144-451A-86A7-152D89BDF0FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_table_pct" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">species_table_pct!$A$1:$G$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">table!$A$1:$G$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="84">
   <si>
     <t>Assemblage</t>
   </si>
@@ -260,6 +262,21 @@
   </si>
   <si>
     <t>Symphyotrichum subspicatum</t>
+  </si>
+  <si>
+    <t>&lt; 0.1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>Overall Change (1979-2019)</t>
+  </si>
+  <si>
+    <t>gained</t>
   </si>
 </sst>
 </file>
@@ -594,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -881,6 +898,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -926,7 +978,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +1042,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1358,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1395,10 +1502,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1419,8 +1526,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
@@ -1439,8 +1546,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1459,8 +1566,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1479,8 +1586,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="13" t="s">
         <v>76</v>
       </c>
@@ -1499,8 +1606,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1519,8 +1626,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
@@ -1538,8 +1645,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="16" t="s">
         <v>77</v>
       </c>
@@ -1557,8 +1664,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1576,8 +1683,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1595,8 +1702,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1617,8 +1724,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
@@ -1632,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" ref="G12:G35" si="1">((D13-F13)/D13)*-100</f>
+        <f t="shared" ref="G13:G35" si="1">((D13-F13)/D13)*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1657,8 +1764,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1677,8 +1784,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1697,8 +1804,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
@@ -1717,8 +1824,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
@@ -1737,8 +1844,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
@@ -1757,8 +1864,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
@@ -1777,8 +1884,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
@@ -1797,8 +1904,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
@@ -1817,8 +1924,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
       </c>
@@ -1837,8 +1944,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
@@ -1857,8 +1964,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1877,8 +1984,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="7" t="s">
         <v>78</v>
       </c>
@@ -1897,8 +2004,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
@@ -1917,8 +2024,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
@@ -1937,8 +2044,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
@@ -1957,8 +2064,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
@@ -1977,8 +2084,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2104,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="7" t="s">
         <v>50</v>
       </c>
@@ -2017,8 +2124,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
@@ -2037,8 +2144,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="7" t="s">
         <v>45</v>
       </c>
@@ -2057,8 +2164,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="13" t="s">
         <v>42</v>
       </c>
@@ -2077,8 +2184,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="7" t="s">
         <v>14</v>
       </c>
@@ -2096,8 +2203,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2222,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
@@ -2134,8 +2241,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
@@ -2153,8 +2260,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
@@ -2172,8 +2279,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="13" t="s">
         <v>27</v>
       </c>
@@ -2191,8 +2298,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
@@ -2210,8 +2317,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="13" t="s">
         <v>47</v>
       </c>
@@ -2229,8 +2336,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2248,8 +2355,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="13" t="s">
         <v>53</v>
       </c>
@@ -2267,8 +2374,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2286,8 +2393,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="13" t="s">
         <v>17</v>
       </c>
@@ -2305,8 +2412,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="7" t="s">
         <v>19</v>
       </c>
@@ -2324,8 +2431,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="13" t="s">
         <v>41</v>
       </c>
@@ -2343,8 +2450,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="13" t="s">
         <v>40</v>
       </c>
@@ -2362,8 +2469,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="10" t="s">
         <v>46</v>
       </c>
@@ -2413,7 +2520,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -2437,8 +2544,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="28"/>
-      <c r="B55" s="27" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2459,8 +2566,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="13" t="s">
         <v>36</v>
       </c>
@@ -2479,8 +2586,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="7" t="s">
         <v>34</v>
       </c>
@@ -2499,8 +2606,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="13" t="s">
         <v>18</v>
       </c>
@@ -2519,8 +2626,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="7" t="s">
         <v>31</v>
       </c>
@@ -2539,8 +2646,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="13" t="s">
         <v>4</v>
       </c>
@@ -2559,8 +2666,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="7" t="s">
         <v>38</v>
       </c>
@@ -2579,8 +2686,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="13" t="s">
         <v>57</v>
       </c>
@@ -2598,8 +2705,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="13" t="s">
         <v>23</v>
       </c>
@@ -2617,8 +2724,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="10" t="s">
         <v>77</v>
       </c>
@@ -2636,8 +2743,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
-      <c r="B65" s="27" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2658,8 +2765,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="13" t="s">
         <v>6</v>
       </c>
@@ -2678,8 +2785,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="7" t="s">
         <v>9</v>
       </c>
@@ -2698,8 +2805,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="13" t="s">
         <v>12</v>
       </c>
@@ -2718,8 +2825,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="7" t="s">
         <v>58</v>
       </c>
@@ -2738,8 +2845,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="13" t="s">
         <v>13</v>
       </c>
@@ -2758,8 +2865,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="7" t="s">
         <v>16</v>
       </c>
@@ -2778,8 +2885,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="13" t="s">
         <v>20</v>
       </c>
@@ -2798,8 +2905,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="7" t="s">
         <v>62</v>
       </c>
@@ -2818,8 +2925,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="13" t="s">
         <v>25</v>
       </c>
@@ -2838,8 +2945,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="7" t="s">
         <v>28</v>
       </c>
@@ -2858,8 +2965,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="13" t="s">
         <v>29</v>
       </c>
@@ -2878,8 +2985,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="7" t="s">
         <v>64</v>
       </c>
@@ -2898,8 +3005,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="13" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3025,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="7" t="s">
         <v>39</v>
       </c>
@@ -2938,8 +3045,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="13" t="s">
         <v>41</v>
       </c>
@@ -2958,8 +3065,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="7" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3085,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="13" t="s">
         <v>66</v>
       </c>
@@ -2998,8 +3105,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="7" t="s">
         <v>46</v>
       </c>
@@ -3018,8 +3125,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="13" t="s">
         <v>67</v>
       </c>
@@ -3038,8 +3145,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="7" t="s">
         <v>51</v>
       </c>
@@ -3058,8 +3165,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="13" t="s">
         <v>78</v>
       </c>
@@ -3078,8 +3185,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="7" t="s">
         <v>52</v>
       </c>
@@ -3098,8 +3205,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="13" t="s">
         <v>35</v>
       </c>
@@ -3118,8 +3225,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
@@ -3138,8 +3245,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="13" t="s">
         <v>47</v>
       </c>
@@ -3158,8 +3265,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="7" t="s">
         <v>10</v>
       </c>
@@ -3178,8 +3285,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="13" t="s">
         <v>42</v>
       </c>
@@ -3198,8 +3305,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="7" t="s">
         <v>50</v>
       </c>
@@ -3218,8 +3325,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="13" t="s">
         <v>32</v>
       </c>
@@ -3238,8 +3345,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="7" t="s">
         <v>53</v>
       </c>
@@ -3258,8 +3365,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="13" t="s">
         <v>61</v>
       </c>
@@ -3278,8 +3385,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="7" t="s">
         <v>15</v>
       </c>
@@ -3298,8 +3405,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="13" t="s">
         <v>49</v>
       </c>
@@ -3318,8 +3425,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="7" t="s">
         <v>27</v>
       </c>
@@ -3338,8 +3445,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="13" t="s">
         <v>45</v>
       </c>
@@ -3358,8 +3465,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
+      <c r="A101" s="47"/>
+      <c r="B101" s="47"/>
       <c r="C101" s="7" t="s">
         <v>22</v>
       </c>
@@ -3378,8 +3485,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="13" t="s">
         <v>14</v>
       </c>
@@ -3397,8 +3504,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="7" t="s">
         <v>63</v>
       </c>
@@ -3416,8 +3523,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="28"/>
-      <c r="B104" s="28"/>
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="13" t="s">
         <v>30</v>
       </c>
@@ -3435,8 +3542,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="7" t="s">
         <v>65</v>
       </c>
@@ -3454,8 +3561,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="13" t="s">
         <v>48</v>
       </c>
@@ -3473,8 +3580,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="7" t="s">
         <v>55</v>
       </c>
@@ -3492,8 +3599,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="13" t="s">
         <v>56</v>
       </c>
@@ -3511,8 +3618,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="28"/>
-      <c r="B109" s="28"/>
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="7" t="s">
         <v>19</v>
       </c>
@@ -3530,8 +3637,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="28"/>
-      <c r="B110" s="28"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="13" t="s">
         <v>26</v>
       </c>
@@ -3549,8 +3656,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="48"/>
+      <c r="B111" s="48"/>
       <c r="C111" s="10" t="s">
         <v>68</v>
       </c>
@@ -3600,7 +3707,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="46" t="s">
         <v>69</v>
       </c>
       <c r="B114" s="23" t="s">
@@ -3623,8 +3730,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="28"/>
-      <c r="B115" s="27" t="s">
+      <c r="A115" s="47"/>
+      <c r="B115" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -3645,8 +3752,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="28"/>
-      <c r="B116" s="28"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="13" t="s">
         <v>34</v>
       </c>
@@ -3665,8 +3772,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="7" t="s">
         <v>4</v>
       </c>
@@ -3685,8 +3792,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="13" t="s">
         <v>31</v>
       </c>
@@ -3705,8 +3812,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="28"/>
-      <c r="B119" s="28"/>
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="7" t="s">
         <v>18</v>
       </c>
@@ -3725,8 +3832,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="28"/>
-      <c r="B120" s="28"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="13" t="s">
         <v>23</v>
       </c>
@@ -3744,8 +3851,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="28"/>
-      <c r="B121" s="28"/>
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="7" t="s">
         <v>77</v>
       </c>
@@ -3763,8 +3870,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="28"/>
-      <c r="B122" s="28"/>
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="13" t="s">
         <v>33</v>
       </c>
@@ -3782,8 +3889,8 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="28"/>
-      <c r="B123" s="28"/>
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="13" t="s">
         <v>38</v>
       </c>
@@ -3801,8 +3908,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="28"/>
-      <c r="B124" s="29"/>
+      <c r="A124" s="47"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="10" t="s">
         <v>57</v>
       </c>
@@ -3820,8 +3927,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="28"/>
-      <c r="B125" s="27" t="s">
+      <c r="A125" s="47"/>
+      <c r="B125" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -3842,8 +3949,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="28"/>
-      <c r="B126" s="28"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="13" t="s">
         <v>12</v>
       </c>
@@ -3862,8 +3969,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="28"/>
-      <c r="B127" s="28"/>
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="7" t="s">
         <v>28</v>
       </c>
@@ -3882,8 +3989,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="28"/>
-      <c r="B128" s="28"/>
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="13" t="s">
         <v>29</v>
       </c>
@@ -3902,8 +4009,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="28"/>
-      <c r="B129" s="28"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="7" t="s">
         <v>64</v>
       </c>
@@ -3922,8 +4029,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="28"/>
-      <c r="B130" s="28"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="13" t="s">
         <v>37</v>
       </c>
@@ -3942,8 +4049,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="28"/>
-      <c r="B131" s="28"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="7" t="s">
         <v>39</v>
       </c>
@@ -3962,8 +4069,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="28"/>
-      <c r="B132" s="28"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="13" t="s">
         <v>41</v>
       </c>
@@ -3982,8 +4089,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="7" t="s">
         <v>71</v>
       </c>
@@ -4002,8 +4109,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="28"/>
-      <c r="B134" s="28"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="13" t="s">
         <v>51</v>
       </c>
@@ -4022,8 +4129,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="28"/>
-      <c r="B135" s="28"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="7" t="s">
         <v>11</v>
       </c>
@@ -4042,8 +4149,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="28"/>
-      <c r="B136" s="28"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="13" t="s">
         <v>15</v>
       </c>
@@ -4062,8 +4169,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="28"/>
-      <c r="B137" s="28"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
       <c r="C137" s="7" t="s">
         <v>49</v>
       </c>
@@ -4082,8 +4189,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="28"/>
-      <c r="B138" s="28"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="13" t="s">
         <v>52</v>
       </c>
@@ -4102,8 +4209,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="28"/>
-      <c r="B139" s="28"/>
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="7" t="s">
         <v>46</v>
       </c>
@@ -4122,8 +4229,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="28"/>
-      <c r="B140" s="28"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="13" t="s">
         <v>9</v>
       </c>
@@ -4142,8 +4249,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="28"/>
-      <c r="B141" s="28"/>
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="7" t="s">
         <v>13</v>
       </c>
@@ -4162,8 +4269,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="28"/>
-      <c r="B142" s="28"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="13" t="s">
         <v>35</v>
       </c>
@@ -4182,8 +4289,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="28"/>
-      <c r="B143" s="28"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="7" t="s">
         <v>10</v>
       </c>
@@ -4202,8 +4309,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="28"/>
-      <c r="B144" s="28"/>
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="13" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4329,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="7" t="s">
         <v>78</v>
       </c>
@@ -4242,8 +4349,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="28"/>
-      <c r="B146" s="28"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="13" t="s">
         <v>45</v>
       </c>
@@ -4262,8 +4369,8 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="28"/>
-      <c r="B147" s="28"/>
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="7" t="s">
         <v>32</v>
       </c>
@@ -4282,8 +4389,8 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="28"/>
-      <c r="B148" s="28"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="13" t="s">
         <v>50</v>
       </c>
@@ -4302,8 +4409,8 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="7" t="s">
         <v>42</v>
       </c>
@@ -4322,8 +4429,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="13" t="s">
         <v>44</v>
       </c>
@@ -4342,8 +4449,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="28"/>
-      <c r="B151" s="28"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="7" t="s">
         <v>27</v>
       </c>
@@ -4362,8 +4469,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="28"/>
-      <c r="B152" s="28"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="13" t="s">
         <v>22</v>
       </c>
@@ -4382,8 +4489,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="28"/>
-      <c r="B153" s="28"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="7" t="s">
         <v>47</v>
       </c>
@@ -4402,8 +4509,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="28"/>
-      <c r="B154" s="28"/>
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="13" t="s">
         <v>14</v>
       </c>
@@ -4421,8 +4528,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="28"/>
-      <c r="B155" s="28"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="7" t="s">
         <v>70</v>
       </c>
@@ -4440,8 +4547,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="28"/>
-      <c r="B156" s="28"/>
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="13" t="s">
         <v>20</v>
       </c>
@@ -4459,8 +4566,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="28"/>
-      <c r="B157" s="28"/>
+      <c r="A157" s="47"/>
+      <c r="B157" s="47"/>
       <c r="C157" s="7" t="s">
         <v>21</v>
       </c>
@@ -4478,8 +4585,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="28"/>
-      <c r="B158" s="28"/>
+      <c r="A158" s="47"/>
+      <c r="B158" s="47"/>
       <c r="C158" s="13" t="s">
         <v>25</v>
       </c>
@@ -4497,8 +4604,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="28"/>
-      <c r="B159" s="28"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="7" t="s">
         <v>26</v>
       </c>
@@ -4516,8 +4623,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="13" t="s">
         <v>72</v>
       </c>
@@ -4535,8 +4642,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="7" t="s">
         <v>16</v>
       </c>
@@ -4554,8 +4661,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="28"/>
-      <c r="B162" s="28"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="13" t="s">
         <v>30</v>
       </c>
@@ -4573,8 +4680,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
+      <c r="A163" s="48"/>
+      <c r="B163" s="48"/>
       <c r="C163" s="10" t="s">
         <v>68</v>
       </c>
@@ -4612,13 +4719,2803 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50C73E3-F1E2-4C38-8160-12F4EB25E464}">
+  <dimension ref="A1:G163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="Q159" sqref="Q159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="14.1796875" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21">
+        <v>1979</v>
+      </c>
+      <c r="E1" s="21">
+        <v>1999</v>
+      </c>
+      <c r="F1" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="33">
+        <v>0.47368421052631599</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.68421052631578905</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27">
+        <v>3.2105263157894699</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1.1052631578947401</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.60714285714285698</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="27">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2.2777777777777799</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="47"/>
+      <c r="B12" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="27">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.26315789473684198</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1.3684210526315801</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.26315789473684198</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.21052631578947401</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.105263157894737</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="F21" s="27">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.84210526315789502</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0.17857142857142899</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0.39285714285714302</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.47368421052631599</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="27">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="20">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="E28" s="20">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="27">
+        <v>3.8421052631578898</v>
+      </c>
+      <c r="E29" s="27">
+        <v>3.0555555555555598</v>
+      </c>
+      <c r="F29" s="27">
+        <v>3</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0.26315789473684198</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="20">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0.47368421052631599</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F33" s="27">
+        <v>1</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="20">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0.26315789473684198</v>
+      </c>
+      <c r="E35" s="27">
+        <v>1</v>
+      </c>
+      <c r="F35" s="27">
+        <v>1.0714285714285701</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20">
+        <v>0.64285714285714302</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27">
+        <v>0.39285714285714302</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27">
+        <v>0.27777777777777801</v>
+      </c>
+      <c r="F45" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="37"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="37"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27">
+        <v>0.27777777777777801</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="37"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="39"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="41"/>
+    </row>
+    <row r="53" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="21">
+        <v>1979</v>
+      </c>
+      <c r="E53" s="21">
+        <v>1999</v>
+      </c>
+      <c r="F53" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="47"/>
+      <c r="B55" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="30">
+        <v>0.31034482758620702</v>
+      </c>
+      <c r="E55" s="30">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="27">
+        <v>0.31034482758620702</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="F57" s="20">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="27">
+        <v>1.55172413793103</v>
+      </c>
+      <c r="E58" s="27">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F58" s="27">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0.37931034482758602</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="27">
+        <v>0.34482758620689702</v>
+      </c>
+      <c r="E60" s="27">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="F60" s="27">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="20">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F61" s="20">
+        <v>1.05555555555556</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="27">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G62" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F63" s="27">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="47"/>
+      <c r="B65" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="30">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="E65" s="30">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="F65" s="30"/>
+      <c r="G65" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0.20689655172413801</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="27">
+        <v>0.62068965517241403</v>
+      </c>
+      <c r="E68" s="27">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="G68" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="20">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="27">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="E70" s="27">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F70" s="27"/>
+      <c r="G70" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="20">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="E71" s="20">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="20">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="27">
+        <v>0.51724137931034497</v>
+      </c>
+      <c r="E74" s="27">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="F74" s="27"/>
+      <c r="G74" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="20">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="E75" s="20">
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="27">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="27">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E78" s="27">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="F78" s="27"/>
+      <c r="G78" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0.20689655172413801</v>
+      </c>
+      <c r="E79" s="20">
+        <v>3.03030303030303E-2</v>
+      </c>
+      <c r="F79" s="20"/>
+      <c r="G79" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="27">
+        <v>0.55172413793103403</v>
+      </c>
+      <c r="E80" s="27">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="20">
+        <v>0.31034482758620702</v>
+      </c>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="20">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F83" s="20"/>
+      <c r="G83" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="20">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="E85" s="20">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F85" s="20"/>
+      <c r="G85" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="27">
+        <v>0.58620689655172398</v>
+      </c>
+      <c r="E86" s="27">
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="20">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="E87" s="20">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="F87" s="20"/>
+      <c r="G87" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="27">
+        <v>1.86206896551724</v>
+      </c>
+      <c r="E88" s="27">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="F88" s="27">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G88" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="20">
+        <v>0.65517241379310298</v>
+      </c>
+      <c r="E89" s="20">
+        <v>0.39393939393939398</v>
+      </c>
+      <c r="F89" s="20">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="27">
+        <v>1</v>
+      </c>
+      <c r="E90" s="27">
+        <v>0.39393939393939398</v>
+      </c>
+      <c r="F90" s="27">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G90" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="20">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1.4242424242424201</v>
+      </c>
+      <c r="F91" s="20">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="27">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="E92" s="27">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="F92" s="27">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G92" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="20">
+        <v>0.41379310344827602</v>
+      </c>
+      <c r="E93" s="20">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="F93" s="20">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="27">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="E94" s="27">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F94" s="27">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G94" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="20">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="E95" s="20">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="F95" s="20">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="27">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G96" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="20">
+        <v>0.62068965517241403</v>
+      </c>
+      <c r="E97" s="20">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="F97" s="20">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="G97" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="27">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="E98" s="27">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F98" s="27">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G98" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="20">
+        <v>0.55172413793103403</v>
+      </c>
+      <c r="E99" s="20">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="F99" s="20">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G99" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="47"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="27">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="E100" s="27">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F100" s="27">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G100" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="47"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="20">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="E101" s="20">
+        <v>0.42424242424242398</v>
+      </c>
+      <c r="F101" s="20">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G101" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="G102" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G103" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G104" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G105" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G106" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" s="20"/>
+      <c r="E107" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" s="20"/>
+      <c r="G107" s="36"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="F108" s="27"/>
+      <c r="G108" s="37"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="20"/>
+      <c r="E109" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="20"/>
+      <c r="G109" s="36"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F110" s="27"/>
+      <c r="G110" s="37"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="48"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="29"/>
+      <c r="E111" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="29"/>
+      <c r="G111" s="39"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="3"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="41"/>
+    </row>
+    <row r="113" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="21">
+        <v>1979</v>
+      </c>
+      <c r="E113" s="21">
+        <v>1999</v>
+      </c>
+      <c r="F113" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G113" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="31"/>
+      <c r="E114" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="31"/>
+      <c r="G114" s="42"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="47"/>
+      <c r="B115" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="27">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="E116" s="27">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G116" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="20">
+        <v>1.8529411764705901</v>
+      </c>
+      <c r="E117" s="20">
+        <v>2.32258064516129</v>
+      </c>
+      <c r="F117" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="G117" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="27">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="E118" s="27">
+        <v>0.25806451612903197</v>
+      </c>
+      <c r="F118" s="27">
+        <v>0.39285714285714302</v>
+      </c>
+      <c r="G118" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="20">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E119" s="20">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F119" s="20">
+        <v>0.17857142857142899</v>
+      </c>
+      <c r="G119" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="F120" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G120" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" s="20"/>
+      <c r="E121" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F121" s="20">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G121" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="F122" s="27">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="G122" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G123" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="47"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F124" s="29"/>
+      <c r="G124" s="39"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="47"/>
+      <c r="B125" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="30">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="E125" s="30">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="F125" s="30"/>
+      <c r="G125" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="27">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="20">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="E127" s="20">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="F127" s="20"/>
+      <c r="G127" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="27">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="E128" s="27">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F128" s="27"/>
+      <c r="G128" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D129" s="20">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" s="27">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="E130" s="27">
+        <v>0.38709677419354799</v>
+      </c>
+      <c r="F130" s="27"/>
+      <c r="G130" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="20">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="20"/>
+      <c r="G131" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="27">
+        <v>1</v>
+      </c>
+      <c r="E132" s="27">
+        <v>0.225806451612903</v>
+      </c>
+      <c r="F132" s="27"/>
+      <c r="G132" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="27">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="E134" s="27">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="F134" s="27"/>
+      <c r="G134" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="20">
+        <v>1.0882352941176501</v>
+      </c>
+      <c r="E135" s="20">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G135" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="27">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="E136" s="27">
+        <v>0.58064516129032295</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="20">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="E137" s="20">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F137" s="20">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G137" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="27">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="E138" s="27">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="F138" s="27">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G138" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139" s="20">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="E139" s="20">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F139" s="20">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G139" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="27">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="E140" s="27">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="F140" s="27">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="G140" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="20">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="E141" s="20">
+        <v>0.35483870967741898</v>
+      </c>
+      <c r="F141" s="20">
+        <v>0.39285714285714302</v>
+      </c>
+      <c r="G141" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="27">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="E142" s="27">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="F142" s="27">
+        <v>0.17857142857142899</v>
+      </c>
+      <c r="G142" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="20">
+        <v>2.97058823529412</v>
+      </c>
+      <c r="E143" s="20">
+        <v>3.0322580645161299</v>
+      </c>
+      <c r="F143" s="20">
+        <v>1.9285714285714299</v>
+      </c>
+      <c r="G143" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="27">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="E144" s="27">
+        <v>0.35483870967741898</v>
+      </c>
+      <c r="F144" s="27">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="G144" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D145" s="20">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="E145" s="20">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="F145" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G145" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" s="27">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="E146" s="27">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="F146" s="27">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G146" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="20">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G147" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D148" s="27">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E148" s="27">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F148" s="27">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="G148" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" s="20">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="E149" s="20">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F149" s="20">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="G149" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D150" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G150" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="20">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E151" s="20">
+        <v>0.25806451612903197</v>
+      </c>
+      <c r="F151" s="20">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="G151" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="27">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="E152" s="27">
+        <v>1.06451612903226</v>
+      </c>
+      <c r="F152" s="27">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="G152" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E153" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F153" s="20">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="G153" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27">
+        <v>0.67857142857142905</v>
+      </c>
+      <c r="G154" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G156" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="47"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G157" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="47"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G158" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G159" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G160" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="F161" s="20"/>
+      <c r="G161" s="36"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
+      <c r="C162" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F162" s="27"/>
+      <c r="G162" s="37"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="48"/>
+      <c r="B163" s="48"/>
+      <c r="C163" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="F163" s="29"/>
+      <c r="G163" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A114:A163"/>
+    <mergeCell ref="B115:B124"/>
+    <mergeCell ref="B125:B163"/>
+    <mergeCell ref="A2:A51"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B51"/>
+    <mergeCell ref="A54:A111"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="B65:B111"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4627,7 +7524,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -4856,24 +7753,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57CCF544-D6E5-42F6-A35F-3D4F2EBA47AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202A38C9-2EAB-4F2A-83A0-C7DD5A2DA12E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4881,7 +7767,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C6C962-298D-442F-913D-3477D7E61B99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4898,4 +7784,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57CCF544-D6E5-42F6-A35F-3D4F2EBA47AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/species_table_pct.xlsx
+++ b/species_table_pct.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{139848B6-F144-451A-86A7-152D89BDF0FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A277A631-3A07-4772-A304-480BB39511B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="90">
   <si>
     <t>Assemblage</t>
   </si>
@@ -277,6 +277,24 @@
   </si>
   <si>
     <t>gained</t>
+  </si>
+  <si>
+    <t>Trifolium wormskioldii</t>
+  </si>
+  <si>
+    <t>Sidalcea hendersonii</t>
+  </si>
+  <si>
+    <t>Myosotis scorpioides</t>
+  </si>
+  <si>
+    <t>Iris pseudacorus</t>
+  </si>
+  <si>
+    <t>Asteraceae sp.</t>
+  </si>
+  <si>
+    <t>Puccinellia pauciflora</t>
   </si>
 </sst>
 </file>
@@ -611,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -900,10 +918,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -911,22 +929,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -978,7 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,15 +1062,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1090,7 +1086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1107,6 +1103,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1465,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1502,10 +1502,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1526,8 +1526,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
@@ -1546,8 +1546,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1566,8 +1566,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1586,8 +1586,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="13" t="s">
         <v>76</v>
       </c>
@@ -1606,8 +1606,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1626,8 +1626,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
@@ -1645,8 +1645,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="16" t="s">
         <v>77</v>
       </c>
@@ -1664,8 +1664,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1683,8 +1683,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1702,8 +1702,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1724,8 +1724,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
@@ -1744,8 +1744,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1764,8 +1764,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1784,8 +1784,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1804,8 +1804,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
@@ -1824,8 +1824,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
@@ -1844,8 +1844,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
@@ -1864,8 +1864,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
@@ -1884,8 +1884,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
@@ -1904,8 +1904,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
@@ -1924,8 +1924,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
       </c>
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1984,8 +1984,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="7" t="s">
         <v>78</v>
       </c>
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
@@ -2024,8 +2024,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
@@ -2084,8 +2084,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
@@ -2104,8 +2104,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="7" t="s">
         <v>50</v>
       </c>
@@ -2124,8 +2124,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
@@ -2144,8 +2144,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="7" t="s">
         <v>45</v>
       </c>
@@ -2164,8 +2164,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="13" t="s">
         <v>42</v>
       </c>
@@ -2184,8 +2184,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="7" t="s">
         <v>14</v>
       </c>
@@ -2203,8 +2203,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
@@ -2222,8 +2222,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
@@ -2241,8 +2241,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
@@ -2260,8 +2260,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
@@ -2279,8 +2279,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="13" t="s">
         <v>27</v>
       </c>
@@ -2298,8 +2298,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
@@ -2317,8 +2317,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="13" t="s">
         <v>47</v>
       </c>
@@ -2336,8 +2336,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2355,8 +2355,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="13" t="s">
         <v>53</v>
       </c>
@@ -2374,8 +2374,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2393,8 +2393,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="13" t="s">
         <v>17</v>
       </c>
@@ -2412,8 +2412,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="7" t="s">
         <v>19</v>
       </c>
@@ -2431,8 +2431,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="13" t="s">
         <v>41</v>
       </c>
@@ -2450,8 +2450,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="13" t="s">
         <v>40</v>
       </c>
@@ -2469,8 +2469,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="10" t="s">
         <v>46</v>
       </c>
@@ -2520,7 +2520,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -2544,8 +2544,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="47"/>
-      <c r="B55" s="46" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2566,8 +2566,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="13" t="s">
         <v>36</v>
       </c>
@@ -2586,8 +2586,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="7" t="s">
         <v>34</v>
       </c>
@@ -2606,8 +2606,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="13" t="s">
         <v>18</v>
       </c>
@@ -2626,8 +2626,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="7" t="s">
         <v>31</v>
       </c>
@@ -2646,8 +2646,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="13" t="s">
         <v>4</v>
       </c>
@@ -2666,8 +2666,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="7" t="s">
         <v>38</v>
       </c>
@@ -2686,8 +2686,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="13" t="s">
         <v>57</v>
       </c>
@@ -2705,8 +2705,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="13" t="s">
         <v>23</v>
       </c>
@@ -2724,8 +2724,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="10" t="s">
         <v>77</v>
       </c>
@@ -2743,8 +2743,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="47"/>
-      <c r="B65" s="46" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2765,8 +2765,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="13" t="s">
         <v>6</v>
       </c>
@@ -2785,8 +2785,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="7" t="s">
         <v>9</v>
       </c>
@@ -2805,8 +2805,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="13" t="s">
         <v>12</v>
       </c>
@@ -2825,8 +2825,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="7" t="s">
         <v>58</v>
       </c>
@@ -2845,8 +2845,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="13" t="s">
         <v>13</v>
       </c>
@@ -2865,8 +2865,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="7" t="s">
         <v>16</v>
       </c>
@@ -2885,8 +2885,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="13" t="s">
         <v>20</v>
       </c>
@@ -2905,8 +2905,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="7" t="s">
         <v>62</v>
       </c>
@@ -2925,8 +2925,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="13" t="s">
         <v>25</v>
       </c>
@@ -2945,8 +2945,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="7" t="s">
         <v>28</v>
       </c>
@@ -2965,8 +2965,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="13" t="s">
         <v>29</v>
       </c>
@@ -2985,8 +2985,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="7" t="s">
         <v>64</v>
       </c>
@@ -3005,8 +3005,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="13" t="s">
         <v>37</v>
       </c>
@@ -3025,8 +3025,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="7" t="s">
         <v>39</v>
       </c>
@@ -3045,8 +3045,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="13" t="s">
         <v>41</v>
       </c>
@@ -3065,8 +3065,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="7" t="s">
         <v>43</v>
       </c>
@@ -3085,8 +3085,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="13" t="s">
         <v>66</v>
       </c>
@@ -3105,8 +3105,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="7" t="s">
         <v>46</v>
       </c>
@@ -3125,8 +3125,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="13" t="s">
         <v>67</v>
       </c>
@@ -3145,8 +3145,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="7" t="s">
         <v>51</v>
       </c>
@@ -3165,8 +3165,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="13" t="s">
         <v>78</v>
       </c>
@@ -3185,8 +3185,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="7" t="s">
         <v>52</v>
       </c>
@@ -3205,8 +3205,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="13" t="s">
         <v>35</v>
       </c>
@@ -3225,8 +3225,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
@@ -3245,8 +3245,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="13" t="s">
         <v>47</v>
       </c>
@@ -3265,8 +3265,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="7" t="s">
         <v>10</v>
       </c>
@@ -3285,8 +3285,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="13" t="s">
         <v>42</v>
       </c>
@@ -3305,8 +3305,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="7" t="s">
         <v>50</v>
       </c>
@@ -3325,8 +3325,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="13" t="s">
         <v>32</v>
       </c>
@@ -3345,8 +3345,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="7" t="s">
         <v>53</v>
       </c>
@@ -3365,8 +3365,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="13" t="s">
         <v>61</v>
       </c>
@@ -3385,8 +3385,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="7" t="s">
         <v>15</v>
       </c>
@@ -3405,8 +3405,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="13" t="s">
         <v>49</v>
       </c>
@@ -3425,8 +3425,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="7" t="s">
         <v>27</v>
       </c>
@@ -3445,8 +3445,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="47"/>
-      <c r="B100" s="47"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="13" t="s">
         <v>45</v>
       </c>
@@ -3465,8 +3465,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="47"/>
-      <c r="B101" s="47"/>
+      <c r="A101" s="44"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="7" t="s">
         <v>22</v>
       </c>
@@ -3485,8 +3485,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="44"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="13" t="s">
         <v>14</v>
       </c>
@@ -3504,8 +3504,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="44"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="7" t="s">
         <v>63</v>
       </c>
@@ -3523,8 +3523,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="44"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="13" t="s">
         <v>30</v>
       </c>
@@ -3542,8 +3542,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="7" t="s">
         <v>65</v>
       </c>
@@ -3561,8 +3561,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="13" t="s">
         <v>48</v>
       </c>
@@ -3580,8 +3580,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="7" t="s">
         <v>55</v>
       </c>
@@ -3599,8 +3599,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="13" t="s">
         <v>56</v>
       </c>
@@ -3618,8 +3618,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="7" t="s">
         <v>19</v>
       </c>
@@ -3637,8 +3637,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="13" t="s">
         <v>26</v>
       </c>
@@ -3656,8 +3656,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="48"/>
-      <c r="B111" s="48"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="10" t="s">
         <v>68</v>
       </c>
@@ -3707,7 +3707,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B114" s="23" t="s">
@@ -3730,8 +3730,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="47"/>
-      <c r="B115" s="46" t="s">
+      <c r="A115" s="44"/>
+      <c r="B115" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -3752,8 +3752,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
+      <c r="A116" s="44"/>
+      <c r="B116" s="44"/>
       <c r="C116" s="13" t="s">
         <v>34</v>
       </c>
@@ -3772,8 +3772,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="44"/>
       <c r="C117" s="7" t="s">
         <v>4</v>
       </c>
@@ -3792,8 +3792,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
+      <c r="A118" s="44"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="13" t="s">
         <v>31</v>
       </c>
@@ -3812,8 +3812,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="44"/>
+      <c r="B119" s="44"/>
       <c r="C119" s="7" t="s">
         <v>18</v>
       </c>
@@ -3832,8 +3832,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="47"/>
-      <c r="B120" s="47"/>
+      <c r="A120" s="44"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="13" t="s">
         <v>23</v>
       </c>
@@ -3851,8 +3851,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
+      <c r="A121" s="44"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="7" t="s">
         <v>77</v>
       </c>
@@ -3870,8 +3870,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
+      <c r="A122" s="44"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="13" t="s">
         <v>33</v>
       </c>
@@ -3889,8 +3889,8 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
+      <c r="A123" s="44"/>
+      <c r="B123" s="44"/>
       <c r="C123" s="13" t="s">
         <v>38</v>
       </c>
@@ -3908,8 +3908,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="47"/>
-      <c r="B124" s="48"/>
+      <c r="A124" s="44"/>
+      <c r="B124" s="45"/>
       <c r="C124" s="10" t="s">
         <v>57</v>
       </c>
@@ -3927,8 +3927,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="47"/>
-      <c r="B125" s="46" t="s">
+      <c r="A125" s="44"/>
+      <c r="B125" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -3949,8 +3949,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
+      <c r="A126" s="44"/>
+      <c r="B126" s="44"/>
       <c r="C126" s="13" t="s">
         <v>12</v>
       </c>
@@ -3969,8 +3969,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="44"/>
+      <c r="B127" s="44"/>
       <c r="C127" s="7" t="s">
         <v>28</v>
       </c>
@@ -3989,8 +3989,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="47"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="13" t="s">
         <v>29</v>
       </c>
@@ -4009,8 +4009,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="47"/>
-      <c r="B129" s="47"/>
+      <c r="A129" s="44"/>
+      <c r="B129" s="44"/>
       <c r="C129" s="7" t="s">
         <v>64</v>
       </c>
@@ -4029,8 +4029,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="44"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="13" t="s">
         <v>37</v>
       </c>
@@ -4049,8 +4049,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="44"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="7" t="s">
         <v>39</v>
       </c>
@@ -4069,8 +4069,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="13" t="s">
         <v>41</v>
       </c>
@@ -4089,8 +4089,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+      <c r="A133" s="44"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="7" t="s">
         <v>71</v>
       </c>
@@ -4109,8 +4109,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="13" t="s">
         <v>51</v>
       </c>
@@ -4129,8 +4129,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
       <c r="C135" s="7" t="s">
         <v>11</v>
       </c>
@@ -4149,8 +4149,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="13" t="s">
         <v>15</v>
       </c>
@@ -4169,8 +4169,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
+      <c r="A137" s="44"/>
+      <c r="B137" s="44"/>
       <c r="C137" s="7" t="s">
         <v>49</v>
       </c>
@@ -4189,8 +4189,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="13" t="s">
         <v>52</v>
       </c>
@@ -4209,8 +4209,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="44"/>
       <c r="C139" s="7" t="s">
         <v>46</v>
       </c>
@@ -4229,8 +4229,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="13" t="s">
         <v>9</v>
       </c>
@@ -4249,8 +4249,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
+      <c r="A141" s="44"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="7" t="s">
         <v>13</v>
       </c>
@@ -4269,8 +4269,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
+      <c r="A142" s="44"/>
+      <c r="B142" s="44"/>
       <c r="C142" s="13" t="s">
         <v>35</v>
       </c>
@@ -4289,8 +4289,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="44"/>
+      <c r="B143" s="44"/>
       <c r="C143" s="7" t="s">
         <v>10</v>
       </c>
@@ -4309,8 +4309,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="13" t="s">
         <v>53</v>
       </c>
@@ -4329,8 +4329,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="7" t="s">
         <v>78</v>
       </c>
@@ -4349,8 +4349,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="13" t="s">
         <v>45</v>
       </c>
@@ -4369,8 +4369,8 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
+      <c r="A147" s="44"/>
+      <c r="B147" s="44"/>
       <c r="C147" s="7" t="s">
         <v>32</v>
       </c>
@@ -4389,8 +4389,8 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="13" t="s">
         <v>50</v>
       </c>
@@ -4409,8 +4409,8 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
+      <c r="A149" s="44"/>
+      <c r="B149" s="44"/>
       <c r="C149" s="7" t="s">
         <v>42</v>
       </c>
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
       <c r="C150" s="13" t="s">
         <v>44</v>
       </c>
@@ -4449,8 +4449,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
       <c r="C151" s="7" t="s">
         <v>27</v>
       </c>
@@ -4469,8 +4469,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="44"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="13" t="s">
         <v>22</v>
       </c>
@@ -4489,8 +4489,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="44"/>
+      <c r="B153" s="44"/>
       <c r="C153" s="7" t="s">
         <v>47</v>
       </c>
@@ -4509,8 +4509,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="44"/>
+      <c r="B154" s="44"/>
       <c r="C154" s="13" t="s">
         <v>14</v>
       </c>
@@ -4528,8 +4528,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="44"/>
+      <c r="B155" s="44"/>
       <c r="C155" s="7" t="s">
         <v>70</v>
       </c>
@@ -4547,8 +4547,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="44"/>
       <c r="C156" s="13" t="s">
         <v>20</v>
       </c>
@@ -4566,8 +4566,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="47"/>
-      <c r="B157" s="47"/>
+      <c r="A157" s="44"/>
+      <c r="B157" s="44"/>
       <c r="C157" s="7" t="s">
         <v>21</v>
       </c>
@@ -4585,8 +4585,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="47"/>
-      <c r="B158" s="47"/>
+      <c r="A158" s="44"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="13" t="s">
         <v>25</v>
       </c>
@@ -4604,8 +4604,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
+      <c r="A159" s="44"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="7" t="s">
         <v>26</v>
       </c>
@@ -4623,8 +4623,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
+      <c r="A160" s="44"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="13" t="s">
         <v>72</v>
       </c>
@@ -4642,8 +4642,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="44"/>
       <c r="C161" s="7" t="s">
         <v>16</v>
       </c>
@@ -4661,8 +4661,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
       <c r="C162" s="13" t="s">
         <v>30</v>
       </c>
@@ -4680,8 +4680,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="48"/>
-      <c r="B163" s="48"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="10" t="s">
         <v>68</v>
       </c>
@@ -4723,8 +4723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50C73E3-F1E2-4C38-8160-12F4EB25E464}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="Q159" sqref="Q159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4733,7 +4733,7 @@
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="14.1796875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4755,208 +4755,206 @@
       <c r="F1" s="21">
         <v>2019</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D3" s="27">
         <v>0.47368421052631599</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="20">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="20">
         <v>0.68421052631578905</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E4" s="20">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F4" s="20">
         <v>0.214285714285714</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G4" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="13" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D5" s="27">
         <v>3.2105263157894699</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E5" s="27">
         <v>1.5</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F5" s="27">
         <v>1.28571428571429</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G5" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D6" s="20">
         <v>1.1052631578947401</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E6" s="20">
         <v>1.1666666666666701</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F6" s="20">
         <v>0.60714285714285698</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G6" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="13" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D7" s="27">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G7" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D8" s="20">
         <v>0.36842105263157898</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E8" s="20">
         <v>2.2777777777777799</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F8" s="20">
         <v>1.78571428571429</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G8" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F9" s="27">
         <v>0.214285714285714</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G9" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="16" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G10" s="35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F11" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G11" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="10" t="s">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0.157894736842105</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="40" t="s">
-        <v>81</v>
-      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
@@ -4965,13 +4963,13 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -4982,13 +4980,13 @@
         <v>0.22222222222222199</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -4999,13 +4997,13 @@
         <v>1.1666666666666701</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
@@ -5016,13 +5014,13 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
@@ -5031,13 +5029,13 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
@@ -5048,13 +5046,13 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
@@ -5063,13 +5061,13 @@
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
@@ -5080,13 +5078,13 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
@@ -5099,13 +5097,13 @@
       <c r="F21" s="27">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
@@ -5118,15 +5116,15 @@
       <c r="F22" s="20">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="13" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D23" s="27">
         <v>0.94736842105263197</v>
@@ -5137,13 +5135,13 @@
       <c r="F23" s="27">
         <v>0.17857142857142899</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
@@ -5154,13 +5152,13 @@
       <c r="F24" s="20">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="13" t="s">
         <v>13</v>
       </c>
@@ -5173,13 +5171,13 @@
       <c r="F25" s="27">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="7" t="s">
         <v>78</v>
       </c>
@@ -5192,13 +5190,13 @@
       <c r="F26" s="20">
         <v>0.32142857142857101</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
@@ -5211,13 +5209,13 @@
       <c r="F27" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
@@ -5230,13 +5228,13 @@
       <c r="F28" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
@@ -5249,13 +5247,13 @@
       <c r="F29" s="27">
         <v>3</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
@@ -5268,13 +5266,13 @@
       <c r="F30" s="20">
         <v>0.57142857142857095</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
@@ -5287,15 +5285,15 @@
       <c r="F31" s="27">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D32" s="20">
         <v>5.2631578947368397E-2</v>
@@ -5304,13 +5302,13 @@
       <c r="F32" s="20">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
@@ -5323,13 +5321,13 @@
       <c r="F33" s="27">
         <v>1</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="7" t="s">
         <v>45</v>
       </c>
@@ -5342,13 +5340,13 @@
       <c r="F34" s="20">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="13" t="s">
         <v>42</v>
       </c>
@@ -5361,13 +5359,13 @@
       <c r="F35" s="27">
         <v>1.0714285714285701</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="7" t="s">
         <v>14</v>
       </c>
@@ -5376,13 +5374,13 @@
       <c r="F36" s="20">
         <v>0.64285714285714302</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
@@ -5391,13 +5389,13 @@
       <c r="F37" s="27">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
@@ -5406,13 +5404,13 @@
       <c r="F38" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
@@ -5423,13 +5421,13 @@
       <c r="F39" s="27">
         <v>0.32142857142857101</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
@@ -5438,13 +5436,13 @@
       <c r="F40" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="13" t="s">
         <v>27</v>
       </c>
@@ -5455,13 +5453,13 @@
       <c r="F41" s="27">
         <v>0.5</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
@@ -5470,13 +5468,13 @@
       <c r="F42" s="20">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="13" t="s">
         <v>47</v>
       </c>
@@ -5487,13 +5485,13 @@
       <c r="F43" s="27">
         <v>0.5</v>
       </c>
-      <c r="G43" s="37" t="s">
+      <c r="G43" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="7" t="s">
         <v>48</v>
       </c>
@@ -5502,13 +5500,13 @@
       <c r="F44" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="13" t="s">
         <v>53</v>
       </c>
@@ -5519,13 +5517,13 @@
       <c r="F45" s="27">
         <v>0.25</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="7" t="s">
         <v>16</v>
       </c>
@@ -5534,11 +5532,11 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="36"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="13" t="s">
         <v>17</v>
       </c>
@@ -5547,11 +5545,11 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="F47" s="27"/>
-      <c r="G47" s="37"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="7" t="s">
         <v>19</v>
       </c>
@@ -5560,11 +5558,11 @@
         <v>5.5555555555555601E-2</v>
       </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="36"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="13" t="s">
         <v>41</v>
       </c>
@@ -5573,11 +5571,11 @@
         <v>0.5</v>
       </c>
       <c r="F49" s="27"/>
-      <c r="G49" s="37"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="13" t="s">
         <v>40</v>
       </c>
@@ -5586,11 +5584,11 @@
         <v>0.27777777777777801</v>
       </c>
       <c r="F50" s="27"/>
-      <c r="G50" s="37"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="10" t="s">
         <v>46</v>
       </c>
@@ -5599,7 +5597,7 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="F51" s="29"/>
-      <c r="G51" s="39"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="19"/>
@@ -5608,7 +5606,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="41"/>
+      <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="21" t="s">
@@ -5629,12 +5627,12 @@
       <c r="F53" s="21">
         <v>2019</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -5648,212 +5646,210 @@
       </c>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="39" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="47"/>
-      <c r="B55" s="46" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="30">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="E55" s="30">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D55" s="30">
-        <v>0.31034482758620702</v>
-      </c>
-      <c r="E55" s="30">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="D56" s="27">
         <v>0.31034482758620702</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="27">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="27">
+        <v>0.31034482758620702</v>
+      </c>
+      <c r="E57" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="37" t="s">
+      <c r="F57" s="27"/>
+      <c r="G57" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="7" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D58" s="20">
         <v>0.17241379310344801</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E58" s="20">
         <v>0.24242424242424199</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F58" s="20">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G57" s="36" t="s">
+      <c r="G58" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="13" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D59" s="27">
         <v>1.55172413793103</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E59" s="27">
         <v>0.90909090909090895</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F59" s="27">
         <v>0.72222222222222199</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G59" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="7" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D60" s="20">
         <v>0.37931034482758602</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E60" s="20">
         <v>0.57575757575757602</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F60" s="20">
         <v>0.44444444444444398</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G60" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="13" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D61" s="27">
         <v>0.34482758620689702</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E61" s="27">
         <v>0.81818181818181801</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F61" s="27">
         <v>0.61111111111111105</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G61" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="7" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D62" s="20">
         <v>6.8965517241379296E-2</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E62" s="20">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F62" s="20">
         <v>1.05555555555556</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G62" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="13" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="28" t="s">
+      <c r="D63" s="27"/>
+      <c r="E63" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F63" s="27">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G62" s="37" t="s">
+      <c r="G63" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F64" s="27">
         <v>0.22222222222222199</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G64" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="10" t="s">
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="44"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29">
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="G65" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="47"/>
-      <c r="B65" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="30">
-        <v>0.10344827586206901</v>
-      </c>
-      <c r="E65" s="30">
-        <v>0.18181818181818199</v>
-      </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="13" t="s">
         <v>6</v>
       </c>
@@ -5862,13 +5858,13 @@
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="7" t="s">
         <v>9</v>
       </c>
@@ -5879,13 +5875,13 @@
         <v>0.51515151515151503</v>
       </c>
       <c r="F67" s="20"/>
-      <c r="G67" s="37" t="s">
+      <c r="G67" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="13" t="s">
         <v>12</v>
       </c>
@@ -5896,13 +5892,13 @@
         <v>9.0909090909090898E-2</v>
       </c>
       <c r="F68" s="27"/>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="7" t="s">
         <v>58</v>
       </c>
@@ -5911,13 +5907,13 @@
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="13" t="s">
         <v>13</v>
       </c>
@@ -5928,13 +5924,13 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F70" s="27"/>
-      <c r="G70" s="37" t="s">
+      <c r="G70" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="7" t="s">
         <v>16</v>
       </c>
@@ -5945,13 +5941,13 @@
         <v>9.0909090909090898E-2</v>
       </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="37" t="s">
+      <c r="G71" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="13" t="s">
         <v>20</v>
       </c>
@@ -5960,13 +5956,13 @@
       </c>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
-      <c r="G72" s="37" t="s">
+      <c r="G72" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="7" t="s">
         <v>62</v>
       </c>
@@ -5975,13 +5971,13 @@
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="37" t="s">
+      <c r="G73" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="13" t="s">
         <v>25</v>
       </c>
@@ -5992,13 +5988,13 @@
         <v>6.0606060606060601E-2</v>
       </c>
       <c r="F74" s="27"/>
-      <c r="G74" s="37" t="s">
+      <c r="G74" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="7" t="s">
         <v>28</v>
       </c>
@@ -6009,13 +6005,13 @@
         <v>0.24242424242424199</v>
       </c>
       <c r="F75" s="20"/>
-      <c r="G75" s="37" t="s">
+      <c r="G75" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="13" t="s">
         <v>29</v>
       </c>
@@ -6024,13 +6020,13 @@
       </c>
       <c r="E76" s="27"/>
       <c r="F76" s="27"/>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="7" t="s">
         <v>64</v>
       </c>
@@ -6039,13 +6035,13 @@
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="37" t="s">
+      <c r="G77" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="13" t="s">
         <v>37</v>
       </c>
@@ -6056,13 +6052,13 @@
         <v>0.30303030303030298</v>
       </c>
       <c r="F78" s="27"/>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="7" t="s">
         <v>39</v>
       </c>
@@ -6073,13 +6069,13 @@
         <v>3.03030303030303E-2</v>
       </c>
       <c r="F79" s="20"/>
-      <c r="G79" s="37" t="s">
+      <c r="G79" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="13" t="s">
         <v>41</v>
       </c>
@@ -6090,13 +6086,13 @@
         <v>1.72727272727273</v>
       </c>
       <c r="F80" s="27"/>
-      <c r="G80" s="37" t="s">
+      <c r="G80" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="7" t="s">
         <v>43</v>
       </c>
@@ -6105,13 +6101,13 @@
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="37" t="s">
+      <c r="G81" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="13" t="s">
         <v>66</v>
       </c>
@@ -6120,13 +6116,13 @@
       </c>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
-      <c r="G82" s="37" t="s">
+      <c r="G82" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="7" t="s">
         <v>46</v>
       </c>
@@ -6137,13 +6133,13 @@
         <v>0.15151515151515199</v>
       </c>
       <c r="F83" s="20"/>
-      <c r="G83" s="37" t="s">
+      <c r="G83" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="13" t="s">
         <v>67</v>
       </c>
@@ -6152,13 +6148,13 @@
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
-      <c r="G84" s="37" t="s">
+      <c r="G84" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="7" t="s">
         <v>51</v>
       </c>
@@ -6169,13 +6165,13 @@
         <v>0.15151515151515199</v>
       </c>
       <c r="F85" s="20"/>
-      <c r="G85" s="37" t="s">
+      <c r="G85" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="13" t="s">
         <v>78</v>
       </c>
@@ -6186,15 +6182,15 @@
         <v>0.24242424242424199</v>
       </c>
       <c r="F86" s="27"/>
-      <c r="G86" s="37" t="s">
+      <c r="G86" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D87" s="20">
         <v>0.68965517241379304</v>
@@ -6203,13 +6199,13 @@
         <v>0.54545454545454497</v>
       </c>
       <c r="F87" s="20"/>
-      <c r="G87" s="37" t="s">
+      <c r="G87" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="13" t="s">
         <v>35</v>
       </c>
@@ -6222,13 +6218,13 @@
       <c r="F88" s="27">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G88" s="37" t="s">
+      <c r="G88" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
@@ -6241,13 +6237,13 @@
       <c r="F89" s="20">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G89" s="36" t="s">
+      <c r="G89" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="13" t="s">
         <v>47</v>
       </c>
@@ -6260,13 +6256,13 @@
       <c r="F90" s="27">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G90" s="37" t="s">
+      <c r="G90" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="7" t="s">
         <v>10</v>
       </c>
@@ -6279,13 +6275,13 @@
       <c r="F91" s="20">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G91" s="36" t="s">
+      <c r="G91" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="13" t="s">
         <v>42</v>
       </c>
@@ -6298,15 +6294,15 @@
       <c r="F92" s="27">
         <v>0.22222222222222199</v>
       </c>
-      <c r="G92" s="37" t="s">
+      <c r="G92" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D93" s="20">
         <v>0.41379310344827602</v>
@@ -6317,13 +6313,13 @@
       <c r="F93" s="20">
         <v>0.22222222222222199</v>
       </c>
-      <c r="G93" s="36" t="s">
+      <c r="G93" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="13" t="s">
         <v>32</v>
       </c>
@@ -6336,13 +6332,13 @@
       <c r="F94" s="27">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G94" s="37" t="s">
+      <c r="G94" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="7" t="s">
         <v>53</v>
       </c>
@@ -6355,13 +6351,13 @@
       <c r="F95" s="20">
         <v>0.44444444444444398</v>
       </c>
-      <c r="G95" s="36" t="s">
+      <c r="G95" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="13" t="s">
         <v>61</v>
       </c>
@@ -6372,13 +6368,13 @@
       <c r="F96" s="27">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G96" s="37" t="s">
+      <c r="G96" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="7" t="s">
         <v>15</v>
       </c>
@@ -6391,13 +6387,13 @@
       <c r="F97" s="20">
         <v>0.44444444444444398</v>
       </c>
-      <c r="G97" s="36" t="s">
+      <c r="G97" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="13" t="s">
         <v>49</v>
       </c>
@@ -6410,13 +6406,13 @@
       <c r="F98" s="27">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G98" s="37" t="s">
+      <c r="G98" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="7" t="s">
         <v>27</v>
       </c>
@@ -6429,13 +6425,13 @@
       <c r="F99" s="20">
         <v>0.55555555555555602</v>
       </c>
-      <c r="G99" s="36" t="s">
+      <c r="G99" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="47"/>
-      <c r="B100" s="47"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="13" t="s">
         <v>45</v>
       </c>
@@ -6448,13 +6444,13 @@
       <c r="F100" s="27">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G100" s="37" t="s">
+      <c r="G100" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="47"/>
-      <c r="B101" s="47"/>
+      <c r="A101" s="44"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="7" t="s">
         <v>22</v>
       </c>
@@ -6467,13 +6463,13 @@
       <c r="F101" s="20">
         <v>0.61111111111111105</v>
       </c>
-      <c r="G101" s="36" t="s">
+      <c r="G101" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="44"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="13" t="s">
         <v>14</v>
       </c>
@@ -6482,13 +6478,13 @@
       <c r="F102" s="27">
         <v>0.38888888888888901</v>
       </c>
-      <c r="G102" s="37" t="s">
+      <c r="G102" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="44"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="7" t="s">
         <v>63</v>
       </c>
@@ -6497,13 +6493,13 @@
       <c r="F103" s="20">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G103" s="37" t="s">
+      <c r="G103" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="44"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="13" t="s">
         <v>30</v>
       </c>
@@ -6512,13 +6508,13 @@
       <c r="F104" s="27">
         <v>0.11111111111111099</v>
       </c>
-      <c r="G104" s="37" t="s">
+      <c r="G104" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="7" t="s">
         <v>65</v>
       </c>
@@ -6527,13 +6523,13 @@
       <c r="F105" s="20">
         <v>0.22222222222222199</v>
       </c>
-      <c r="G105" s="37" t="s">
+      <c r="G105" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="13" t="s">
         <v>48</v>
       </c>
@@ -6542,26 +6538,26 @@
       <c r="F106" s="27">
         <v>0.16666666666666699</v>
       </c>
-      <c r="G106" s="37" t="s">
+      <c r="G106" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="7" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F107" s="20"/>
-      <c r="G107" s="36"/>
+      <c r="G107" s="33"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="13" t="s">
         <v>56</v>
       </c>
@@ -6570,11 +6566,11 @@
         <v>6.0606060606060601E-2</v>
       </c>
       <c r="F108" s="27"/>
-      <c r="G108" s="37"/>
+      <c r="G108" s="34"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="7" t="s">
         <v>19</v>
       </c>
@@ -6583,11 +6579,11 @@
         <v>79</v>
       </c>
       <c r="F109" s="20"/>
-      <c r="G109" s="36"/>
+      <c r="G109" s="33"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="13" t="s">
         <v>26</v>
       </c>
@@ -6596,20 +6592,20 @@
         <v>9.0909090909090898E-2</v>
       </c>
       <c r="F110" s="27"/>
-      <c r="G110" s="37"/>
+      <c r="G110" s="34"/>
     </row>
     <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="48"/>
-      <c r="B111" s="48"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D111" s="29"/>
-      <c r="E111" s="45" t="s">
+      <c r="E111" s="42" t="s">
         <v>79</v>
       </c>
       <c r="F111" s="29"/>
-      <c r="G111" s="39"/>
+      <c r="G111" s="36"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
@@ -6618,7 +6614,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="41"/>
+      <c r="G112" s="38"/>
     </row>
     <row r="113" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="21" t="s">
@@ -6639,12 +6635,12 @@
       <c r="F113" s="21">
         <v>2019</v>
       </c>
-      <c r="G113" s="34" t="s">
+      <c r="G113" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B114" s="23" t="s">
@@ -6658,217 +6654,215 @@
         <v>79</v>
       </c>
       <c r="F114" s="31"/>
-      <c r="G114" s="42"/>
+      <c r="G114" s="39"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="47"/>
-      <c r="B115" s="46" t="s">
+      <c r="A115" s="44"/>
+      <c r="B115" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="30">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="E115" s="30">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="F115" s="30"/>
+      <c r="G115" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="44"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="40" t="s">
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="13" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="44"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="27">
+      <c r="D117" s="27">
         <v>0.29411764705882398</v>
       </c>
-      <c r="E116" s="27">
+      <c r="E117" s="27">
         <v>0.16129032258064499</v>
       </c>
-      <c r="F116" s="27" t="s">
+      <c r="F117" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G116" s="37" t="s">
+      <c r="G117" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="7" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="44"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D118" s="20">
         <v>1.8529411764705901</v>
       </c>
-      <c r="E117" s="20">
+      <c r="E118" s="20">
         <v>2.32258064516129</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F118" s="20">
         <v>1.25</v>
       </c>
-      <c r="G117" s="36" t="s">
+      <c r="G118" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
-      <c r="C118" s="13" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="44"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D118" s="27">
+      <c r="D119" s="27">
         <v>0.26470588235294101</v>
       </c>
-      <c r="E118" s="27">
+      <c r="E119" s="27">
         <v>0.25806451612903197</v>
       </c>
-      <c r="F118" s="27">
+      <c r="F119" s="27">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G118" s="37" t="s">
+      <c r="G119" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
-      <c r="C119" s="7" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="44"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D120" s="20">
         <v>8.8235294117647106E-2</v>
       </c>
-      <c r="E119" s="20">
+      <c r="E120" s="20">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F120" s="20">
         <v>0.17857142857142899</v>
       </c>
-      <c r="G119" s="36" t="s">
+      <c r="G120" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="47"/>
-      <c r="B120" s="47"/>
-      <c r="C120" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="44"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27">
         <v>0.12903225806451599</v>
       </c>
-      <c r="F120" s="27">
+      <c r="F121" s="27">
         <v>0.25</v>
       </c>
-      <c r="G120" s="37" t="s">
+      <c r="G121" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
-      <c r="C121" s="7" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="44"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D121" s="20"/>
-      <c r="E121" s="28" t="s">
+      <c r="D122" s="20"/>
+      <c r="E122" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F122" s="20">
         <v>0.107142857142857</v>
       </c>
-      <c r="G121" s="37" t="s">
+      <c r="G122" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
-      <c r="C122" s="13" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="44"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27">
+      <c r="D123" s="27"/>
+      <c r="E123" s="27">
         <v>0.16129032258064499</v>
       </c>
-      <c r="F122" s="27">
+      <c r="F123" s="27">
         <v>0.53571428571428603</v>
       </c>
-      <c r="G122" s="37" t="s">
+      <c r="G123" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
-      <c r="C123" s="13" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="44"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27">
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G123" s="37" t="s">
+      <c r="G124" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="47"/>
-      <c r="B124" s="48"/>
-      <c r="C124" s="10" t="s">
+    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="44"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="27" t="s">
+      <c r="D125" s="29"/>
+      <c r="E125" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="F124" s="29"/>
-      <c r="G124" s="39"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="47"/>
-      <c r="B125" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="30">
-        <v>0.35294117647058798</v>
-      </c>
-      <c r="E125" s="30">
-        <v>6.4516129032258104E-2</v>
-      </c>
-      <c r="F125" s="30"/>
-      <c r="G125" s="40" t="s">
+      <c r="F125" s="29"/>
+      <c r="G125" s="36"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="44"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="47">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="27">
-        <v>0.20588235294117599</v>
-      </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="44"/>
+      <c r="B127" s="44"/>
       <c r="C127" s="7" t="s">
         <v>28</v>
       </c>
@@ -6879,13 +6873,13 @@
         <v>0.19354838709677399</v>
       </c>
       <c r="F127" s="20"/>
-      <c r="G127" s="37" t="s">
+      <c r="G127" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="47"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="13" t="s">
         <v>29</v>
       </c>
@@ -6896,13 +6890,13 @@
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="F128" s="27"/>
-      <c r="G128" s="37" t="s">
+      <c r="G128" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="47"/>
-      <c r="B129" s="47"/>
+      <c r="A129" s="44"/>
+      <c r="B129" s="44"/>
       <c r="C129" s="7" t="s">
         <v>64</v>
       </c>
@@ -6911,13 +6905,13 @@
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="37" t="s">
+      <c r="G129" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="44"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="13" t="s">
         <v>37</v>
       </c>
@@ -6928,13 +6922,13 @@
         <v>0.38709677419354799</v>
       </c>
       <c r="F130" s="27"/>
-      <c r="G130" s="37" t="s">
+      <c r="G130" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="44"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="7" t="s">
         <v>39</v>
       </c>
@@ -6945,13 +6939,13 @@
         <v>79</v>
       </c>
       <c r="F131" s="20"/>
-      <c r="G131" s="37" t="s">
+      <c r="G131" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="13" t="s">
         <v>41</v>
       </c>
@@ -6962,28 +6956,28 @@
         <v>0.225806451612903</v>
       </c>
       <c r="F132" s="27"/>
-      <c r="G132" s="37" t="s">
+      <c r="G132" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+      <c r="A133" s="44"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>79</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="37" t="s">
+      <c r="G133" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="13" t="s">
         <v>51</v>
       </c>
@@ -6994,13 +6988,13 @@
         <v>0.19354838709677399</v>
       </c>
       <c r="F134" s="27"/>
-      <c r="G134" s="37" t="s">
+      <c r="G134" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
       <c r="C135" s="7" t="s">
         <v>11</v>
       </c>
@@ -7013,13 +7007,13 @@
       <c r="F135" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G135" s="37" t="s">
+      <c r="G135" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="13" t="s">
         <v>15</v>
       </c>
@@ -7032,13 +7026,13 @@
       <c r="F136" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G136" s="37" t="s">
+      <c r="G136" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
+      <c r="A137" s="44"/>
+      <c r="B137" s="44"/>
       <c r="C137" s="7" t="s">
         <v>49</v>
       </c>
@@ -7051,15 +7045,15 @@
       <c r="F137" s="20">
         <v>0.107142857142857</v>
       </c>
-      <c r="G137" s="37" t="s">
+      <c r="G137" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="13" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D138" s="27">
         <v>0.41176470588235298</v>
@@ -7070,13 +7064,13 @@
       <c r="F138" s="27">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G138" s="37" t="s">
+      <c r="G138" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="44"/>
       <c r="C139" s="7" t="s">
         <v>46</v>
       </c>
@@ -7089,13 +7083,13 @@
       <c r="F139" s="20">
         <v>0.107142857142857</v>
       </c>
-      <c r="G139" s="37" t="s">
+      <c r="G139" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="13" t="s">
         <v>9</v>
       </c>
@@ -7108,13 +7102,13 @@
       <c r="F140" s="27">
         <v>0.214285714285714</v>
       </c>
-      <c r="G140" s="37" t="s">
+      <c r="G140" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
+      <c r="A141" s="44"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="7" t="s">
         <v>13</v>
       </c>
@@ -7127,13 +7121,13 @@
       <c r="F141" s="20">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G141" s="37" t="s">
+      <c r="G141" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
+      <c r="A142" s="44"/>
+      <c r="B142" s="44"/>
       <c r="C142" s="13" t="s">
         <v>35</v>
       </c>
@@ -7146,13 +7140,13 @@
       <c r="F142" s="27">
         <v>0.17857142857142899</v>
       </c>
-      <c r="G142" s="37" t="s">
+      <c r="G142" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="44"/>
+      <c r="B143" s="44"/>
       <c r="C143" s="7" t="s">
         <v>10</v>
       </c>
@@ -7165,13 +7159,13 @@
       <c r="F143" s="20">
         <v>1.9285714285714299</v>
       </c>
-      <c r="G143" s="37" t="s">
+      <c r="G143" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="13" t="s">
         <v>53</v>
       </c>
@@ -7184,13 +7178,13 @@
       <c r="F144" s="27">
         <v>0.42857142857142899</v>
       </c>
-      <c r="G144" s="37" t="s">
+      <c r="G144" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="7" t="s">
         <v>78</v>
       </c>
@@ -7203,13 +7197,13 @@
       <c r="F145" s="20">
         <v>0.25</v>
       </c>
-      <c r="G145" s="37" t="s">
+      <c r="G145" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="13" t="s">
         <v>45</v>
       </c>
@@ -7222,13 +7216,13 @@
       <c r="F146" s="27">
         <v>0.107142857142857</v>
       </c>
-      <c r="G146" s="37" t="s">
+      <c r="G146" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
+      <c r="A147" s="44"/>
+      <c r="B147" s="44"/>
       <c r="C147" s="7" t="s">
         <v>32</v>
       </c>
@@ -7239,15 +7233,15 @@
       <c r="F147" s="20">
         <v>0.107142857142857</v>
       </c>
-      <c r="G147" s="36" t="s">
+      <c r="G147" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="13" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D148" s="27">
         <v>8.8235294117647106E-2</v>
@@ -7258,13 +7252,13 @@
       <c r="F148" s="27">
         <v>0.214285714285714</v>
       </c>
-      <c r="G148" s="37" t="s">
+      <c r="G148" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
+      <c r="A149" s="44"/>
+      <c r="B149" s="44"/>
       <c r="C149" s="7" t="s">
         <v>42</v>
       </c>
@@ -7277,15 +7271,15 @@
       <c r="F149" s="20">
         <v>0.78571428571428603</v>
       </c>
-      <c r="G149" s="36" t="s">
+      <c r="G149" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
       <c r="C150" s="13" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>79</v>
@@ -7294,13 +7288,13 @@
       <c r="F150" s="27">
         <v>0.107142857142857</v>
       </c>
-      <c r="G150" s="37" t="s">
+      <c r="G150" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
       <c r="C151" s="7" t="s">
         <v>27</v>
       </c>
@@ -7313,13 +7307,13 @@
       <c r="F151" s="20">
         <v>0.46428571428571402</v>
       </c>
-      <c r="G151" s="36" t="s">
+      <c r="G151" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="44"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="13" t="s">
         <v>22</v>
       </c>
@@ -7332,13 +7326,13 @@
       <c r="F152" s="27">
         <v>0.85714285714285698</v>
       </c>
-      <c r="G152" s="37" t="s">
+      <c r="G152" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="44"/>
+      <c r="B153" s="44"/>
       <c r="C153" s="7" t="s">
         <v>47</v>
       </c>
@@ -7351,13 +7345,13 @@
       <c r="F153" s="20">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G153" s="36" t="s">
+      <c r="G153" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="44"/>
+      <c r="B154" s="44"/>
       <c r="C154" s="13" t="s">
         <v>14</v>
       </c>
@@ -7366,13 +7360,13 @@
       <c r="F154" s="27">
         <v>0.67857142857142905</v>
       </c>
-      <c r="G154" s="37" t="s">
+      <c r="G154" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="44"/>
+      <c r="B155" s="44"/>
       <c r="C155" s="7" t="s">
         <v>70</v>
       </c>
@@ -7381,13 +7375,13 @@
       <c r="F155" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G155" s="43" t="s">
+      <c r="G155" s="40" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="44"/>
       <c r="C156" s="13" t="s">
         <v>20</v>
       </c>
@@ -7396,13 +7390,13 @@
       <c r="F156" s="27">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G156" s="37" t="s">
+      <c r="G156" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="47"/>
-      <c r="B157" s="47"/>
+      <c r="A157" s="44"/>
+      <c r="B157" s="44"/>
       <c r="C157" s="7" t="s">
         <v>21</v>
       </c>
@@ -7411,13 +7405,13 @@
       <c r="F157" s="20">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G157" s="37" t="s">
+      <c r="G157" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="47"/>
-      <c r="B158" s="47"/>
+      <c r="A158" s="44"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="13" t="s">
         <v>25</v>
       </c>
@@ -7426,13 +7420,13 @@
       <c r="F158" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G158" s="37" t="s">
+      <c r="G158" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
+      <c r="A159" s="44"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="7" t="s">
         <v>26</v>
       </c>
@@ -7441,13 +7435,13 @@
       <c r="F159" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G159" s="37" t="s">
+      <c r="G159" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
+      <c r="A160" s="44"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="13" t="s">
         <v>72</v>
       </c>
@@ -7456,13 +7450,13 @@
       <c r="F160" s="27">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G160" s="37" t="s">
+      <c r="G160" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="44"/>
       <c r="C161" s="7" t="s">
         <v>16</v>
       </c>
@@ -7471,11 +7465,11 @@
         <v>0.19354838709677399</v>
       </c>
       <c r="F161" s="20"/>
-      <c r="G161" s="36"/>
+      <c r="G161" s="33"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
       <c r="C162" s="13" t="s">
         <v>30</v>
       </c>
@@ -7484,11 +7478,11 @@
         <v>79</v>
       </c>
       <c r="F162" s="27"/>
-      <c r="G162" s="37"/>
+      <c r="G162" s="34"/>
     </row>
     <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="48"/>
-      <c r="B163" s="48"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="10" t="s">
         <v>68</v>
       </c>
@@ -7497,19 +7491,19 @@
         <v>6.4516129032258104E-2</v>
       </c>
       <c r="F163" s="29"/>
-      <c r="G163" s="39"/>
+      <c r="G163" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A114:A163"/>
-    <mergeCell ref="B115:B124"/>
-    <mergeCell ref="B125:B163"/>
+    <mergeCell ref="B115:B125"/>
+    <mergeCell ref="B126:B163"/>
     <mergeCell ref="A2:A51"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B51"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B51"/>
     <mergeCell ref="A54:A111"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="B65:B111"/>
+    <mergeCell ref="B55:B65"/>
+    <mergeCell ref="B66:B111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7525,6 +7519,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -7753,12 +7753,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202A38C9-2EAB-4F2A-83A0-C7DD5A2DA12E}">
   <ds:schemaRefs>
@@ -7768,6 +7762,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57CCF544-D6E5-42F6-A35F-3D4F2EBA47AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C6C962-298D-442F-913D-3477D7E61B99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7784,21 +7795,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57CCF544-D6E5-42F6-A35F-3D4F2EBA47AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/species_table_pct.xlsx
+++ b/species_table_pct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A277A631-3A07-4772-A304-480BB39511B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{A277A631-3A07-4772-A304-480BB39511B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CA12BC7-D091-42F9-BFCC-CFBB4C7A451F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-17895" yWindow="330" windowWidth="17280" windowHeight="8985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_table_pct" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,27 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">species_table_pct!$A$1:$G$163</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">table!$A$1:$G$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">table!$A$1:$G$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="90">
   <si>
     <t>Assemblage</t>
   </si>
@@ -629,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -930,7 +943,22 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -999,8 +1027,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1025,12 +1053,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,34 +1084,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1104,8 +1120,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1469,43 +1495,43 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="14.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.77734375" style="1"/>
+    <col min="7" max="7" width="14.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>1979</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="19">
         <v>1999</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="19">
         <v>2019</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1525,9 +1551,9 @@
         <v>-84.920634920634924</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
@@ -1545,9 +1571,9 @@
         <v>-68.6813186813187</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1565,9 +1591,9 @@
         <v>-59.95316159250568</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1585,9 +1611,9 @@
         <v>-45.068027210884523</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="13" t="s">
         <v>76</v>
       </c>
@@ -1605,9 +1631,9 @@
         <v>-32.142857142857139</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1625,9 +1651,9 @@
         <v>384.69387755102156</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
@@ -1644,9 +1670,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="16" t="s">
         <v>77</v>
       </c>
@@ -1663,9 +1689,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1682,9 +1708,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1701,9 +1727,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1723,9 +1749,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
@@ -1743,9 +1769,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1763,9 +1789,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1783,9 +1809,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1803,9 +1829,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
@@ -1823,9 +1849,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
@@ -1843,9 +1869,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
@@ -1863,9 +1889,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
@@ -1883,9 +1909,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
@@ -1903,9 +1929,9 @@
         <v>-92.460317460317469</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
@@ -1923,9 +1949,9 @@
         <v>-83.035714285714263</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
       </c>
@@ -1943,9 +1969,9 @@
         <v>-81.150793650793617</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
@@ -1963,9 +1989,9 @@
         <v>-54.761904761904709</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1983,9 +2009,9 @@
         <v>-37.797619047619015</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="7" t="s">
         <v>78</v>
       </c>
@@ -2003,9 +2029,9 @@
         <v>-32.14285714285726</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
@@ -2023,9 +2049,9 @@
         <v>-32.142857142857139</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
@@ -2043,9 +2069,9 @@
         <v>-32.142857142857139</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
@@ -2063,9 +2089,9 @@
         <v>-21.917808219177981</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
@@ -2083,9 +2109,9 @@
         <v>8.5714285714285321</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
@@ -2103,9 +2129,9 @@
         <v>8.5714285714287222</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="7" t="s">
         <v>50</v>
       </c>
@@ -2123,9 +2149,9 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
@@ -2143,9 +2169,9 @@
         <v>111.11111111111103</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="7" t="s">
         <v>45</v>
       </c>
@@ -2163,9 +2189,9 @@
         <v>171.42857142857181</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="13" t="s">
         <v>42</v>
       </c>
@@ -2183,9 +2209,9 @@
         <v>307.14285714285683</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="7" t="s">
         <v>14</v>
       </c>
@@ -2202,9 +2228,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
@@ -2221,9 +2247,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
@@ -2240,9 +2266,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
@@ -2259,9 +2285,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
@@ -2278,9 +2304,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="13" t="s">
         <v>27</v>
       </c>
@@ -2297,9 +2323,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
@@ -2316,9 +2342,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="13" t="s">
         <v>47</v>
       </c>
@@ -2335,9 +2361,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2354,9 +2380,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="13" t="s">
         <v>53</v>
       </c>
@@ -2373,9 +2399,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2392,9 +2418,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="13" t="s">
         <v>17</v>
       </c>
@@ -2411,9 +2437,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="7" t="s">
         <v>19</v>
       </c>
@@ -2430,9 +2456,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="13" t="s">
         <v>41</v>
       </c>
@@ -2449,9 +2475,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="13" t="s">
         <v>40</v>
       </c>
@@ -2468,9 +2494,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="10" t="s">
         <v>46</v>
       </c>
@@ -2487,65 +2513,64 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="21" t="s">
+    </row>
+    <row r="53" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="19">
         <v>1979</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="19">
         <v>1999</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="19">
         <v>2019</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="43" t="s">
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="23">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="E54" s="25">
-        <v>0</v>
-      </c>
-      <c r="F54" s="25">
-        <v>0</v>
-      </c>
-      <c r="G54" s="26">
+      <c r="E54" s="23">
+        <v>0</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="24">
         <f t="shared" ref="G54:G61" si="2">((D54-F54)/D54)*-100</f>
         <v>-100</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="44"/>
-      <c r="B55" s="43" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
+      <c r="B55" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2565,9 +2590,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="13" t="s">
         <v>36</v>
       </c>
@@ -2585,9 +2610,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="7" t="s">
         <v>34</v>
       </c>
@@ -2605,9 +2630,9 @@
         <v>-67.777777777777686</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="13" t="s">
         <v>18</v>
       </c>
@@ -2625,9 +2650,9 @@
         <v>-53.456790123456678</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="7" t="s">
         <v>31</v>
       </c>
@@ -2645,9 +2670,9 @@
         <v>17.171717171717106</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="13" t="s">
         <v>4</v>
       </c>
@@ -2665,9 +2690,9 @@
         <v>77.222222222221959</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="7" t="s">
         <v>38</v>
       </c>
@@ -2685,9 +2710,9 @@
         <v>1430.5555555555623</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="13" t="s">
         <v>57</v>
       </c>
@@ -2704,9 +2729,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="13" t="s">
         <v>23</v>
       </c>
@@ -2723,9 +2748,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="44"/>
-      <c r="B64" s="45"/>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="10" t="s">
         <v>77</v>
       </c>
@@ -2742,9 +2767,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="44"/>
-      <c r="B65" s="43" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2764,9 +2789,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="13" t="s">
         <v>6</v>
       </c>
@@ -2784,9 +2809,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="7" t="s">
         <v>9</v>
       </c>
@@ -2804,9 +2829,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="13" t="s">
         <v>12</v>
       </c>
@@ -2824,9 +2849,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="7" t="s">
         <v>58</v>
       </c>
@@ -2844,9 +2869,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="13" t="s">
         <v>13</v>
       </c>
@@ -2864,9 +2889,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="7" t="s">
         <v>16</v>
       </c>
@@ -2884,9 +2909,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="13" t="s">
         <v>20</v>
       </c>
@@ -2904,9 +2929,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="7" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +2949,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="13" t="s">
         <v>25</v>
       </c>
@@ -2944,9 +2969,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="7" t="s">
         <v>28</v>
       </c>
@@ -2964,9 +2989,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="13" t="s">
         <v>29</v>
       </c>
@@ -2984,9 +3009,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="7" t="s">
         <v>64</v>
       </c>
@@ -3004,9 +3029,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="13" t="s">
         <v>37</v>
       </c>
@@ -3024,9 +3049,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="7" t="s">
         <v>39</v>
       </c>
@@ -3044,9 +3069,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="13" t="s">
         <v>41</v>
       </c>
@@ -3064,9 +3089,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="7" t="s">
         <v>43</v>
       </c>
@@ -3084,9 +3109,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="13" t="s">
         <v>66</v>
       </c>
@@ -3104,9 +3129,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="7" t="s">
         <v>46</v>
       </c>
@@ -3124,9 +3149,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="13" t="s">
         <v>67</v>
       </c>
@@ -3144,9 +3169,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="7" t="s">
         <v>51</v>
       </c>
@@ -3164,9 +3189,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="13" t="s">
         <v>78</v>
       </c>
@@ -3184,9 +3209,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="7" t="s">
         <v>52</v>
       </c>
@@ -3204,9 +3229,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="13" t="s">
         <v>35</v>
       </c>
@@ -3224,9 +3249,9 @@
         <v>-97.016460905349788</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
@@ -3244,9 +3269,9 @@
         <v>-91.520467836257296</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="44"/>
-      <c r="B90" s="44"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="13" t="s">
         <v>47</v>
       </c>
@@ -3264,9 +3289,9 @@
         <v>-88.8888888888889</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="44"/>
-      <c r="B91" s="44"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="7" t="s">
         <v>10</v>
       </c>
@@ -3284,9 +3309,9 @@
         <v>-85.353535353535364</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="13" t="s">
         <v>42</v>
       </c>
@@ -3304,9 +3329,9 @@
         <v>-53.968253968253997</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="44"/>
-      <c r="B93" s="44"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="40"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="7" t="s">
         <v>50</v>
       </c>
@@ -3324,9 +3349,9 @@
         <v>-46.296296296296376</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="13" t="s">
         <v>32</v>
       </c>
@@ -3344,9 +3369,9 @@
         <v>-46.296296296296276</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="7" t="s">
         <v>53</v>
       </c>
@@ -3364,9 +3389,9 @@
         <v>-35.555555555555621</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="13" t="s">
         <v>61</v>
       </c>
@@ -3384,9 +3409,9 @@
         <v>-35.555555555555522</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="7" t="s">
         <v>15</v>
       </c>
@@ -3404,9 +3429,9 @@
         <v>-28.395061728395167</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="13" t="s">
         <v>49</v>
       </c>
@@ -3424,9 +3449,9 @@
         <v>-19.444444444444361</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="7" t="s">
         <v>27</v>
       </c>
@@ -3444,9 +3469,9 @@
         <v>0.69444444444461184</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="13" t="s">
         <v>45</v>
       </c>
@@ -3464,9 +3489,9 @@
         <v>61.111111111110972</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="44"/>
-      <c r="B101" s="44"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="7" t="s">
         <v>22</v>
       </c>
@@ -3484,9 +3509,9 @@
         <v>121.52777777777794</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="44"/>
-      <c r="B102" s="44"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="13" t="s">
         <v>14</v>
       </c>
@@ -3503,9 +3528,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="44"/>
-      <c r="B103" s="44"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="7" t="s">
         <v>63</v>
       </c>
@@ -3522,9 +3547,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="44"/>
-      <c r="B104" s="44"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="13" t="s">
         <v>30</v>
       </c>
@@ -3541,9 +3566,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="7" t="s">
         <v>65</v>
       </c>
@@ -3560,9 +3585,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="13" t="s">
         <v>48</v>
       </c>
@@ -3579,9 +3604,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="7" t="s">
         <v>55</v>
       </c>
@@ -3598,9 +3623,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="13" t="s">
         <v>56</v>
       </c>
@@ -3617,9 +3642,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
       <c r="C109" s="7" t="s">
         <v>19</v>
       </c>
@@ -3636,9 +3661,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
       <c r="C110" s="13" t="s">
         <v>26</v>
       </c>
@@ -3655,9 +3680,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
+    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="41"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="10" t="s">
         <v>68</v>
       </c>
@@ -3674,64 +3699,63 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="7"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="20"/>
-    </row>
-    <row r="113" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="21" t="s">
+    </row>
+    <row r="113" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="19">
         <v>1979</v>
       </c>
-      <c r="E113" s="21">
+      <c r="E113" s="19">
         <v>1999</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="19">
         <v>2019</v>
       </c>
-      <c r="G113" s="22" t="s">
+      <c r="G113" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="43" t="s">
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="25">
-        <v>0</v>
-      </c>
-      <c r="E114" s="25">
+      <c r="D114" s="23">
+        <v>0</v>
+      </c>
+      <c r="E114" s="23">
         <v>3.2258064516128997E-2</v>
       </c>
-      <c r="F114" s="25">
-        <v>0</v>
-      </c>
-      <c r="G114" s="26" t="s">
+      <c r="F114" s="23">
+        <v>0</v>
+      </c>
+      <c r="G114" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="44"/>
-      <c r="B115" s="43" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="40"/>
+      <c r="B115" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -3751,9 +3775,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="44"/>
-      <c r="B116" s="44"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
       <c r="C116" s="13" t="s">
         <v>34</v>
       </c>
@@ -3771,9 +3795,9 @@
         <v>-87.857142857142875</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="44"/>
-      <c r="B117" s="44"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="40"/>
+      <c r="B117" s="40"/>
       <c r="C117" s="7" t="s">
         <v>4</v>
       </c>
@@ -3791,9 +3815,9 @@
         <v>-32.539682539682609</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="40"/>
+      <c r="B118" s="40"/>
       <c r="C118" s="13" t="s">
         <v>31</v>
       </c>
@@ -3811,9 +3835,9 @@
         <v>48.41269841269856</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="44"/>
-      <c r="B119" s="44"/>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="40"/>
+      <c r="B119" s="40"/>
       <c r="C119" s="7" t="s">
         <v>18</v>
       </c>
@@ -3831,9 +3855,9 @@
         <v>102.38095238095275</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="44"/>
-      <c r="B120" s="44"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
       <c r="C120" s="13" t="s">
         <v>23</v>
       </c>
@@ -3850,9 +3874,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="44"/>
-      <c r="B121" s="44"/>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
+      <c r="B121" s="40"/>
       <c r="C121" s="7" t="s">
         <v>77</v>
       </c>
@@ -3869,9 +3893,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="44"/>
-      <c r="B122" s="44"/>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="40"/>
+      <c r="B122" s="40"/>
       <c r="C122" s="13" t="s">
         <v>33</v>
       </c>
@@ -3888,9 +3912,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="44"/>
-      <c r="B123" s="44"/>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="40"/>
+      <c r="B123" s="40"/>
       <c r="C123" s="13" t="s">
         <v>38</v>
       </c>
@@ -3907,9 +3931,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="44"/>
-      <c r="B124" s="45"/>
+    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="40"/>
+      <c r="B124" s="41"/>
       <c r="C124" s="10" t="s">
         <v>57</v>
       </c>
@@ -3926,9 +3950,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="44"/>
-      <c r="B125" s="43" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
+      <c r="B125" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -3948,9 +3972,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="44"/>
-      <c r="B126" s="44"/>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="40"/>
+      <c r="B126" s="40"/>
       <c r="C126" s="13" t="s">
         <v>12</v>
       </c>
@@ -3968,9 +3992,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="44"/>
-      <c r="B127" s="44"/>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="40"/>
+      <c r="B127" s="40"/>
       <c r="C127" s="7" t="s">
         <v>28</v>
       </c>
@@ -3988,9 +4012,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="44"/>
-      <c r="B128" s="44"/>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="40"/>
+      <c r="B128" s="40"/>
       <c r="C128" s="13" t="s">
         <v>29</v>
       </c>
@@ -4008,9 +4032,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="44"/>
-      <c r="B129" s="44"/>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
+      <c r="B129" s="40"/>
       <c r="C129" s="7" t="s">
         <v>64</v>
       </c>
@@ -4028,9 +4052,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="44"/>
-      <c r="B130" s="44"/>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="B130" s="40"/>
       <c r="C130" s="13" t="s">
         <v>37</v>
       </c>
@@ -4048,9 +4072,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="44"/>
-      <c r="B131" s="44"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="40"/>
       <c r="C131" s="7" t="s">
         <v>39</v>
       </c>
@@ -4068,9 +4092,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="44"/>
-      <c r="B132" s="44"/>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="B132" s="40"/>
       <c r="C132" s="13" t="s">
         <v>41</v>
       </c>
@@ -4088,9 +4112,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="44"/>
-      <c r="B133" s="44"/>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
       <c r="C133" s="7" t="s">
         <v>71</v>
       </c>
@@ -4108,9 +4132,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="44"/>
-      <c r="B134" s="44"/>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="B134" s="40"/>
       <c r="C134" s="13" t="s">
         <v>51</v>
       </c>
@@ -4128,9 +4152,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="40"/>
       <c r="C135" s="7" t="s">
         <v>11</v>
       </c>
@@ -4148,9 +4172,9 @@
         <v>-96.718146718146713</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="B136" s="40"/>
       <c r="C136" s="13" t="s">
         <v>15</v>
       </c>
@@ -4168,9 +4192,9 @@
         <v>-95.952380952380949</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="44"/>
-      <c r="B137" s="44"/>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="40"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="7" t="s">
         <v>49</v>
       </c>
@@ -4188,9 +4212,9 @@
         <v>-84.821428571428598</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="40"/>
+      <c r="B138" s="40"/>
       <c r="C138" s="13" t="s">
         <v>52</v>
       </c>
@@ -4208,9 +4232,9 @@
         <v>-82.653061224489804</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="44"/>
-      <c r="B139" s="44"/>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="40"/>
+      <c r="B139" s="40"/>
       <c r="C139" s="7" t="s">
         <v>46</v>
       </c>
@@ -4228,9 +4252,9 @@
         <v>-73.979591836734741</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="44"/>
-      <c r="B140" s="44"/>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="40"/>
+      <c r="B140" s="40"/>
       <c r="C140" s="13" t="s">
         <v>9</v>
       </c>
@@ -4248,9 +4272,9 @@
         <v>-54.464285714285808</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="44"/>
-      <c r="B141" s="44"/>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="40"/>
+      <c r="B141" s="40"/>
       <c r="C141" s="7" t="s">
         <v>13</v>
       </c>
@@ -4268,9 +4292,9 @@
         <v>-50.529100529100482</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="44"/>
-      <c r="B142" s="44"/>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="40"/>
+      <c r="B142" s="40"/>
       <c r="C142" s="13" t="s">
         <v>35</v>
       </c>
@@ -4288,9 +4312,9 @@
         <v>-44.805194805194695</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="44"/>
-      <c r="B143" s="44"/>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="40"/>
+      <c r="B143" s="40"/>
       <c r="C143" s="7" t="s">
         <v>10</v>
       </c>
@@ -4308,9 +4332,9 @@
         <v>-35.077793493635085</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="44"/>
-      <c r="B144" s="44"/>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="40"/>
+      <c r="B144" s="40"/>
       <c r="C144" s="13" t="s">
         <v>53</v>
       </c>
@@ -4328,9 +4352,9 @@
         <v>-27.142857142857057</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
+      <c r="B145" s="40"/>
       <c r="C145" s="7" t="s">
         <v>78</v>
       </c>
@@ -4348,9 +4372,9 @@
         <v>-15.00000000000013</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="13" t="s">
         <v>45</v>
       </c>
@@ -4368,9 +4392,9 @@
         <v>-8.9285714285712281</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="44"/>
-      <c r="B147" s="44"/>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="40"/>
+      <c r="B147" s="40"/>
       <c r="C147" s="7" t="s">
         <v>32</v>
       </c>
@@ -4388,9 +4412,9 @@
         <v>21.4285714285712</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="44"/>
-      <c r="B148" s="44"/>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="40"/>
+      <c r="B148" s="40"/>
       <c r="C148" s="13" t="s">
         <v>50</v>
       </c>
@@ -4408,9 +4432,9 @@
         <v>142.85714285714241</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="44"/>
-      <c r="B149" s="44"/>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="40"/>
+      <c r="B149" s="40"/>
       <c r="C149" s="7" t="s">
         <v>42</v>
       </c>
@@ -4428,9 +4452,9 @@
         <v>167.14285714285683</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="44"/>
-      <c r="B150" s="44"/>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="40"/>
+      <c r="B150" s="40"/>
       <c r="C150" s="13" t="s">
         <v>44</v>
       </c>
@@ -4448,9 +4472,9 @@
         <v>264.2857142857132</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="40"/>
+      <c r="B151" s="40"/>
       <c r="C151" s="7" t="s">
         <v>27</v>
       </c>
@@ -4468,9 +4492,9 @@
         <v>426.19047619047558</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="44"/>
-      <c r="B152" s="44"/>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="40"/>
+      <c r="B152" s="40"/>
       <c r="C152" s="13" t="s">
         <v>22</v>
       </c>
@@ -4488,9 +4512,9 @@
         <v>482.85714285714187</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="44"/>
-      <c r="B153" s="44"/>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="40"/>
+      <c r="B153" s="40"/>
       <c r="C153" s="7" t="s">
         <v>47</v>
       </c>
@@ -4508,9 +4532,9 @@
         <v>871.42857142857065</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="44"/>
-      <c r="B154" s="44"/>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="40"/>
+      <c r="B154" s="40"/>
       <c r="C154" s="13" t="s">
         <v>14</v>
       </c>
@@ -4527,9 +4551,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="44"/>
-      <c r="B155" s="44"/>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
       <c r="C155" s="7" t="s">
         <v>70</v>
       </c>
@@ -4546,9 +4570,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="44"/>
-      <c r="B156" s="44"/>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="40"/>
+      <c r="B156" s="40"/>
       <c r="C156" s="13" t="s">
         <v>20</v>
       </c>
@@ -4565,9 +4589,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="44"/>
-      <c r="B157" s="44"/>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="40"/>
+      <c r="B157" s="40"/>
       <c r="C157" s="7" t="s">
         <v>21</v>
       </c>
@@ -4584,9 +4608,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="44"/>
-      <c r="B158" s="44"/>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="40"/>
+      <c r="B158" s="40"/>
       <c r="C158" s="13" t="s">
         <v>25</v>
       </c>
@@ -4603,9 +4627,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="44"/>
-      <c r="B159" s="44"/>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="40"/>
+      <c r="B159" s="40"/>
       <c r="C159" s="7" t="s">
         <v>26</v>
       </c>
@@ -4622,9 +4646,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="44"/>
-      <c r="B160" s="44"/>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="40"/>
+      <c r="B160" s="40"/>
       <c r="C160" s="13" t="s">
         <v>72</v>
       </c>
@@ -4641,9 +4665,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="44"/>
-      <c r="B161" s="44"/>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="40"/>
+      <c r="B161" s="40"/>
       <c r="C161" s="7" t="s">
         <v>16</v>
       </c>
@@ -4660,9 +4684,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="44"/>
-      <c r="B162" s="44"/>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="40"/>
+      <c r="B162" s="40"/>
       <c r="C162" s="13" t="s">
         <v>30</v>
       </c>
@@ -4679,9 +4703,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="45"/>
-      <c r="B163" s="45"/>
+    <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="41"/>
+      <c r="B163" s="41"/>
       <c r="C163" s="10" t="s">
         <v>68</v>
       </c>
@@ -4699,7 +4723,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B114:G163">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B114:G163">
     <sortCondition descending="1" ref="B114:B163"/>
     <sortCondition ref="G114:G163"/>
     <sortCondition ref="C114:C163"/>
@@ -4721,1093 +4745,1095 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50C73E3-F1E2-4C38-8160-12F4EB25E464}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection sqref="A1:G159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="14.1796875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>1979</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="19">
         <v>1999</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="19">
         <v>2019</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="28">
         <v>0.157894736842105</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="28">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>0.47368421052631599</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="43">
         <v>0.68421052631578905</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="43">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="43">
         <v>0.214285714285714</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>3.2105263157894699</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>1.5</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <v>1.28571428571429</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="43">
         <v>1.1052631578947401</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="43">
         <v>1.1666666666666701</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="43">
         <v>0.60714285714285698</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="43">
         <v>0.36842105263157898</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="43">
         <v>2.2777777777777799</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="43">
         <v>1.78571428571429</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="25">
         <v>0.214285714285714</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="13" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="46">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="34" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="43">
         <v>0.26315789473684198</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="43">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>1.3684210526315801</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>1.1666666666666701</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="43">
         <v>0.26315789473684198</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="43">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>0.21052631578947401</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="34" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="43">
         <v>0.63157894736842102</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="43">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>0.105263157894737</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="34" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="43">
         <v>0.63157894736842102</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="43">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="43"/>
+      <c r="G20" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="25">
         <v>0.94736842105263197</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="25">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="25">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="7" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="43">
         <v>0.84210526315789502</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="43">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="43">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>0.94736842105263197</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="25">
         <v>0.17857142857142899</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="7" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="43">
         <v>0.157894736842105</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="25">
         <v>0.63157894736842102</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>0.77777777777777801</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="25">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="7" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="43">
         <v>0.47368421052631599</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="43">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="43">
         <v>0.32142857142857101</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="25">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="25">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="7" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="43">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="43">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="25">
         <v>3.8421052631578898</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="25">
         <v>3.0555555555555598</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="25">
         <v>3</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="7" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="43">
         <v>0.52631578947368396</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="43">
         <v>0.22222222222222199</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="43">
         <v>0.57142857142857095</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="25">
         <v>0.26315789473684198</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="25">
         <v>0.38888888888888901</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="25">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="7" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="43">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20">
+      <c r="E32" s="43"/>
+      <c r="F32" s="43">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="25">
         <v>0.47368421052631599</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="25">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="25">
         <v>1</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="7" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="43">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="43">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="43">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="25">
         <v>0.26315789473684198</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="25">
         <v>1</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="25">
         <v>1.0714285714285701</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="7" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20">
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43">
         <v>0.64285714285714302</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25">
         <v>0.39285714285714302</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="7" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="28" t="s">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25">
         <v>0.44444444444444398</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="25">
         <v>0.32142857142857101</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="7" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="28" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="25">
         <v>0.5</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="7" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25">
         <v>0.61111111111111105</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="25">
         <v>0.5</v>
       </c>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="7" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="28" t="s">
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="25">
         <v>0.25</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="7" t="s">
+    <row r="46" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20">
+      <c r="D46" s="43"/>
+      <c r="E46" s="43">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="31"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="34"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="7" t="s">
+      <c r="F47" s="25"/>
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20">
+      <c r="D48" s="43"/>
+      <c r="E48" s="43">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25">
         <v>0.5</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="34"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25">
         <v>0.27777777777777801</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="34"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="32"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29">
+      <c r="D51" s="27"/>
+      <c r="E51" s="27">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="36"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="38"/>
-    </row>
-    <row r="53" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="21">
-        <v>1979</v>
-      </c>
-      <c r="E53" s="21">
-        <v>1999</v>
-      </c>
-      <c r="F53" s="21">
-        <v>2019</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="43" t="s">
+      <c r="F51" s="27"/>
+      <c r="G51" s="34"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B52" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C52" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D52" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="39" t="s">
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="44"/>
-      <c r="B55" s="43" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
+      <c r="B53" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D53" s="28">
         <v>0.10344827586206901</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E53" s="28">
         <v>0.18181818181818199</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="37" t="s">
+      <c r="F53" s="28"/>
+      <c r="G53" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="13" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D54" s="25">
         <v>0.31034482758620702</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E54" s="25">
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="34" t="s">
+      <c r="F54" s="25"/>
+      <c r="G54" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="25">
+        <v>0.31034482758620702</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="43">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E56" s="43">
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="F56" s="43">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="27">
-        <v>0.31034482758620702</v>
-      </c>
-      <c r="E57" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="25">
+        <v>1.55172413793103</v>
+      </c>
+      <c r="E57" s="25">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F57" s="25">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="43">
+        <v>0.37931034482758602</v>
+      </c>
+      <c r="E58" s="43">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="F58" s="43">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="25">
+        <v>0.34482758620689702</v>
+      </c>
+      <c r="E59" s="25">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="F59" s="25">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="43">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="E60" s="43">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F60" s="43">
+        <v>1.05555555555556</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="20">
-        <v>0.17241379310344801</v>
-      </c>
-      <c r="E58" s="20">
-        <v>0.24242424242424199</v>
-      </c>
-      <c r="F58" s="20">
+      <c r="F61" s="25">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="G58" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="27">
-        <v>1.55172413793103</v>
-      </c>
-      <c r="E59" s="27">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="F59" s="27">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="20">
-        <v>0.37931034482758602</v>
-      </c>
-      <c r="E60" s="20">
-        <v>0.57575757575757602</v>
-      </c>
-      <c r="F60" s="20">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="27">
-        <v>0.34482758620689702</v>
-      </c>
-      <c r="E61" s="27">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="F61" s="27">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="20">
-        <v>6.8965517241379296E-2</v>
-      </c>
-      <c r="E62" s="20">
+      <c r="G61" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25">
         <v>0.15151515151515199</v>
       </c>
-      <c r="F62" s="20">
-        <v>1.05555555555556</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="13" t="s">
-        <v>57</v>
+      <c r="F62" s="25">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D63" s="27"/>
-      <c r="E63" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="E63" s="27"/>
       <c r="F63" s="27">
         <v>5.5555555555555601E-2</v>
       </c>
@@ -5815,1716 +5841,1642 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="13" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="40"/>
+      <c r="B64" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="43">
+        <v>0.20689655172413801</v>
+      </c>
+      <c r="E65" s="43">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="G65" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="25">
+        <v>0.62068965517241403</v>
+      </c>
+      <c r="E66" s="25">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F66" s="25"/>
+      <c r="G66" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="43">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="E68" s="25">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="43">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="E69" s="43">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F69" s="43"/>
+      <c r="G69" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="43">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="25">
+        <v>0.51724137931034497</v>
+      </c>
+      <c r="E72" s="25">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="43">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="E73" s="43">
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="F73" s="43"/>
+      <c r="G73" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="25">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="25">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E76" s="25">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="F76" s="25"/>
+      <c r="G76" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="43">
+        <v>0.20689655172413801</v>
+      </c>
+      <c r="E77" s="43">
+        <v>3.03030303030303E-2</v>
+      </c>
+      <c r="F77" s="43"/>
+      <c r="G77" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="25">
+        <v>0.55172413793103403</v>
+      </c>
+      <c r="E78" s="25">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="43">
+        <v>0.31034482758620702</v>
+      </c>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="43">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F81" s="43"/>
+      <c r="G81" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="43">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="E83" s="43">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F83" s="43"/>
+      <c r="G83" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="25">
+        <v>0.58620689655172398</v>
+      </c>
+      <c r="E84" s="25">
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="F84" s="25"/>
+      <c r="G84" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="43">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="E85" s="43">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="F85" s="43"/>
+      <c r="G85" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="25">
+        <v>1.86206896551724</v>
+      </c>
+      <c r="E86" s="25">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="F86" s="25">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="43">
+        <v>0.65517241379310298</v>
+      </c>
+      <c r="E87" s="43">
+        <v>0.39393939393939398</v>
+      </c>
+      <c r="F87" s="43">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="25">
+        <v>1</v>
+      </c>
+      <c r="E88" s="25">
+        <v>0.39393939393939398</v>
+      </c>
+      <c r="F88" s="25">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="43">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="E89" s="43">
+        <v>1.4242424242424201</v>
+      </c>
+      <c r="F89" s="43">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="25">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="E90" s="25">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="F90" s="25">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="43">
+        <v>0.41379310344827602</v>
+      </c>
+      <c r="E91" s="43">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="F91" s="43">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="25">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="E92" s="25">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F92" s="25">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="40"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="43">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="E93" s="43">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="F93" s="43">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="25">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="43">
+        <v>0.62068965517241403</v>
+      </c>
+      <c r="E95" s="43">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="F95" s="43">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="25">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="E96" s="25">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F96" s="25">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="43">
+        <v>0.55172413793103403</v>
+      </c>
+      <c r="E97" s="43">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="F97" s="43">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="25">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="E98" s="25">
+        <v>0.15151515151515199</v>
+      </c>
+      <c r="F98" s="25">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="43">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="E99" s="43">
+        <v>0.42424242424242398</v>
+      </c>
+      <c r="F99" s="43">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="43"/>
+      <c r="E105" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="43"/>
+      <c r="G105" s="31"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="F106" s="25"/>
+      <c r="G106" s="32"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="43"/>
+      <c r="E107" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" s="43"/>
+      <c r="G107" s="31"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F108" s="25"/>
+      <c r="G108" s="32"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="27"/>
+      <c r="E109" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="27"/>
+      <c r="G109" s="34"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="29"/>
+      <c r="E110" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="29"/>
+      <c r="G110" s="36"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="40"/>
+      <c r="B111" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="28">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="E111" s="28">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="F111" s="28"/>
+      <c r="G111" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="40"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="25">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="E113" s="25">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="40"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="43">
+        <v>1.8529411764705901</v>
+      </c>
+      <c r="E114" s="43">
+        <v>2.32258064516129</v>
+      </c>
+      <c r="F114" s="43">
+        <v>1.25</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="40"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="25">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="E115" s="25">
+        <v>0.25806451612903197</v>
+      </c>
+      <c r="F115" s="25">
+        <v>0.39285714285714302</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="43">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E116" s="43">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F116" s="43">
+        <v>0.17857142857142899</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="40"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27">
-        <v>0.15151515151515199</v>
-      </c>
-      <c r="F64" s="27">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="G64" s="34" t="s">
+      <c r="D117" s="25"/>
+      <c r="E117" s="25">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="F117" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G117" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="44"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="10" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="40"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="G65" s="36" t="s">
+      <c r="D118" s="43"/>
+      <c r="E118" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F118" s="43">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G118" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="27" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="40"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="F119" s="25">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="40"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="27"/>
+      <c r="E121" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="34" t="s">
+      <c r="F121" s="27"/>
+      <c r="G121" s="34"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="40"/>
+      <c r="B122" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="46">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="7" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="40"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="43">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="E123" s="43">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="F123" s="43"/>
+      <c r="G123" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="40"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="25">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="E124" s="25">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F124" s="25"/>
+      <c r="G124" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" s="43">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="40"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="25">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="E126" s="25">
+        <v>0.38709677419354799</v>
+      </c>
+      <c r="F126" s="25"/>
+      <c r="G126" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="40"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="43">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F127" s="43"/>
+      <c r="G127" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="40"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="25">
+        <v>1</v>
+      </c>
+      <c r="E128" s="25">
+        <v>0.225806451612903</v>
+      </c>
+      <c r="F128" s="25"/>
+      <c r="G128" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" s="25">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="E130" s="25">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="F130" s="25"/>
+      <c r="G130" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="43">
+        <v>1.0882352941176501</v>
+      </c>
+      <c r="E131" s="43">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G131" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="25">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="E132" s="25">
+        <v>0.58064516129032295</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="43">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="E133" s="43">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F133" s="43">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G133" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D134" s="25">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="E134" s="25">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="F134" s="25">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="43">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="E135" s="43">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F135" s="43">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G135" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="20">
-        <v>0.20689655172413801</v>
-      </c>
-      <c r="E67" s="20">
-        <v>0.51515151515151503</v>
-      </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="27">
-        <v>0.62068965517241403</v>
-      </c>
-      <c r="E68" s="27">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="20">
-        <v>6.8965517241379296E-2</v>
-      </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="13" t="s">
+      <c r="D136" s="25">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="E136" s="25">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="F136" s="25">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="G136" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="40"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="27">
-        <v>0.96551724137931005</v>
-      </c>
-      <c r="E70" s="27">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="7" t="s">
+      <c r="D137" s="43">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="E137" s="43">
+        <v>0.35483870967741898</v>
+      </c>
+      <c r="F137" s="43">
+        <v>0.39285714285714302</v>
+      </c>
+      <c r="G137" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="40"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" s="25">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="E138" s="25">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="F138" s="25">
+        <v>0.17857142857142899</v>
+      </c>
+      <c r="G138" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="40"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="43">
+        <v>2.97058823529412</v>
+      </c>
+      <c r="E139" s="43">
+        <v>3.0322580645161299</v>
+      </c>
+      <c r="F139" s="43">
+        <v>1.9285714285714299</v>
+      </c>
+      <c r="G139" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="40"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="25">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="E140" s="25">
+        <v>0.35483870967741898</v>
+      </c>
+      <c r="F140" s="25">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="G140" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="40"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D141" s="43">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="E141" s="43">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="F141" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G141" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="40"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" s="25">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="E142" s="25">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="F142" s="25">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G142" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="40"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="43">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="40"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D144" s="25">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E144" s="25">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F144" s="25">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="G144" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="43">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="E145" s="43">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F145" s="43">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G146" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="40"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="43">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E147" s="43">
+        <v>0.25806451612903197</v>
+      </c>
+      <c r="F147" s="43">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="G147" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="40"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="25">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="E148" s="25">
+        <v>1.06451612903226</v>
+      </c>
+      <c r="F148" s="25">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="G148" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="40"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E149" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F149" s="43">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="G149" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="40"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25">
+        <v>0.67857142857142905</v>
+      </c>
+      <c r="G150" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="40"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G151" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="40"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G152" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="40"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G153" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="40"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G154" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="40"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G156" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="40"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="20">
-        <v>0.75862068965517204</v>
-      </c>
-      <c r="E71" s="20">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="27" t="s">
+      <c r="D157" s="43"/>
+      <c r="E157" s="43">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="F157" s="43"/>
+      <c r="G157" s="31"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="40"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="20">
-        <v>0.10344827586206901</v>
-      </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="27">
-        <v>0.51724137931034497</v>
-      </c>
-      <c r="E74" s="27">
-        <v>6.0606060606060601E-2</v>
-      </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="20">
-        <v>0.13793103448275901</v>
-      </c>
-      <c r="E75" s="20">
-        <v>0.24242424242424199</v>
-      </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="27">
-        <v>0.17241379310344801</v>
-      </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" s="27">
-        <v>0.17241379310344801</v>
-      </c>
-      <c r="E78" s="27">
-        <v>0.30303030303030298</v>
-      </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="20">
-        <v>0.20689655172413801</v>
-      </c>
-      <c r="E79" s="20">
-        <v>3.03030303030303E-2</v>
-      </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="27">
-        <v>0.55172413793103403</v>
-      </c>
-      <c r="E80" s="27">
-        <v>1.72727272727273</v>
-      </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="20">
-        <v>0.31034482758620702</v>
-      </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E83" s="20">
-        <v>0.15151515151515199</v>
-      </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" s="20">
-        <v>0.13793103448275901</v>
-      </c>
-      <c r="E85" s="20">
-        <v>0.15151515151515199</v>
-      </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="27">
-        <v>0.58620689655172398</v>
-      </c>
-      <c r="E86" s="27">
-        <v>0.24242424242424199</v>
-      </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="20">
-        <v>0.68965517241379304</v>
-      </c>
-      <c r="E87" s="20">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="27">
-        <v>1.86206896551724</v>
-      </c>
-      <c r="E88" s="27">
-        <v>1.3333333333333299</v>
-      </c>
-      <c r="F88" s="27">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="G88" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="20">
-        <v>0.65517241379310298</v>
-      </c>
-      <c r="E89" s="20">
-        <v>0.39393939393939398</v>
-      </c>
-      <c r="F89" s="20">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="G89" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="44"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="27">
-        <v>1</v>
-      </c>
-      <c r="E90" s="27">
-        <v>0.39393939393939398</v>
-      </c>
-      <c r="F90" s="27">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="G90" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="44"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="20">
-        <v>0.75862068965517204</v>
-      </c>
-      <c r="E91" s="20">
-        <v>1.4242424242424201</v>
-      </c>
-      <c r="F91" s="20">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="G91" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" s="27">
-        <v>0.48275862068965503</v>
-      </c>
-      <c r="E92" s="27">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="F92" s="27">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="G92" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="44"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="20">
-        <v>0.41379310344827602</v>
-      </c>
-      <c r="E93" s="20">
-        <v>0.18181818181818199</v>
-      </c>
-      <c r="F93" s="20">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" s="27">
-        <v>0.10344827586206901</v>
-      </c>
-      <c r="E94" s="27">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="F94" s="27">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="G94" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="20">
-        <v>0.68965517241379304</v>
-      </c>
-      <c r="E95" s="20">
-        <v>0.36363636363636398</v>
-      </c>
-      <c r="F95" s="20">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="G95" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="27">
-        <v>0.17241379310344801</v>
-      </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="G96" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="20">
-        <v>0.62068965517241403</v>
-      </c>
-      <c r="E97" s="20">
-        <v>0.36363636363636398</v>
-      </c>
-      <c r="F97" s="20">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="G97" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="27">
-        <v>6.8965517241379296E-2</v>
-      </c>
-      <c r="E98" s="27">
-        <v>0.15151515151515199</v>
-      </c>
-      <c r="F98" s="27">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="G98" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="20">
-        <v>0.55172413793103403</v>
-      </c>
-      <c r="E99" s="20">
-        <v>0.18181818181818199</v>
-      </c>
-      <c r="F99" s="20">
-        <v>0.55555555555555602</v>
-      </c>
-      <c r="G99" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="27">
-        <v>6.8965517241379296E-2</v>
-      </c>
-      <c r="E100" s="27">
-        <v>0.15151515151515199</v>
-      </c>
-      <c r="F100" s="27">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="G100" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="44"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="20">
-        <v>0.27586206896551702</v>
-      </c>
-      <c r="E101" s="20">
-        <v>0.42424242424242398</v>
-      </c>
-      <c r="F101" s="20">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="G101" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="44"/>
-      <c r="B102" s="44"/>
-      <c r="C102" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27">
-        <v>0.38888888888888901</v>
-      </c>
-      <c r="G102" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="44"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="G103" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="44"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="G104" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="G105" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="G106" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" s="20"/>
-      <c r="E107" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F107" s="20"/>
-      <c r="G107" s="33"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27">
-        <v>6.0606060606060601E-2</v>
-      </c>
-      <c r="F108" s="27"/>
-      <c r="G108" s="34"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="20"/>
-      <c r="E109" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F109" s="20"/>
-      <c r="G109" s="33"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="F110" s="27"/>
-      <c r="G110" s="34"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="10" t="s">
+      <c r="F158" s="25"/>
+      <c r="G158" s="32"/>
+    </row>
+    <row r="159" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="41"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D111" s="29"/>
-      <c r="E111" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="29"/>
-      <c r="G111" s="36"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="3"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="38"/>
-    </row>
-    <row r="113" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="21">
-        <v>1979</v>
-      </c>
-      <c r="E113" s="21">
-        <v>1999</v>
-      </c>
-      <c r="F113" s="21">
-        <v>2019</v>
-      </c>
-      <c r="G113" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="31"/>
-      <c r="E114" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F114" s="31"/>
-      <c r="G114" s="39"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="44"/>
-      <c r="B115" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="30">
-        <v>0.35294117647058798</v>
-      </c>
-      <c r="E115" s="30">
+      <c r="D159" s="27"/>
+      <c r="E159" s="27">
         <v>6.4516129032258104E-2</v>
       </c>
-      <c r="F115" s="30"/>
-      <c r="G115" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="44"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="44"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" s="27">
-        <v>0.29411764705882398</v>
-      </c>
-      <c r="E117" s="27">
-        <v>0.16129032258064499</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G117" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="20">
-        <v>1.8529411764705901</v>
-      </c>
-      <c r="E118" s="20">
-        <v>2.32258064516129</v>
-      </c>
-      <c r="F118" s="20">
-        <v>1.25</v>
-      </c>
-      <c r="G118" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="44"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D119" s="27">
-        <v>0.26470588235294101</v>
-      </c>
-      <c r="E119" s="27">
-        <v>0.25806451612903197</v>
-      </c>
-      <c r="F119" s="27">
-        <v>0.39285714285714302</v>
-      </c>
-      <c r="G119" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="44"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="20">
-        <v>8.8235294117647106E-2</v>
-      </c>
-      <c r="E120" s="20">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="F120" s="20">
-        <v>0.17857142857142899</v>
-      </c>
-      <c r="G120" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="44"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27">
-        <v>0.12903225806451599</v>
-      </c>
-      <c r="F121" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G121" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="44"/>
-      <c r="B122" s="44"/>
-      <c r="C122" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D122" s="20"/>
-      <c r="E122" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F122" s="20">
-        <v>0.107142857142857</v>
-      </c>
-      <c r="G122" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="44"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27">
-        <v>0.16129032258064499</v>
-      </c>
-      <c r="F123" s="27">
-        <v>0.53571428571428603</v>
-      </c>
-      <c r="G123" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="44"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27">
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="G124" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="44"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F125" s="29"/>
-      <c r="G125" s="36"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="44"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="47">
-        <v>0.20588235294117599</v>
-      </c>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="44"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" s="20">
-        <v>0.17647058823529399</v>
-      </c>
-      <c r="E127" s="20">
-        <v>0.19354838709677399</v>
-      </c>
-      <c r="F127" s="20"/>
-      <c r="G127" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="44"/>
-      <c r="B128" s="44"/>
-      <c r="C128" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128" s="27">
-        <v>5.8823529411764698E-2</v>
-      </c>
-      <c r="E128" s="27">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="F128" s="27"/>
-      <c r="G128" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="44"/>
-      <c r="B129" s="44"/>
-      <c r="C129" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D129" s="20">
-        <v>8.8235294117647106E-2</v>
-      </c>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="44"/>
-      <c r="B130" s="44"/>
-      <c r="C130" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D130" s="27">
-        <v>0.70588235294117696</v>
-      </c>
-      <c r="E130" s="27">
-        <v>0.38709677419354799</v>
-      </c>
-      <c r="F130" s="27"/>
-      <c r="G130" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="44"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D131" s="20">
-        <v>8.8235294117647106E-2</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F131" s="20"/>
-      <c r="G131" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="44"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D132" s="27">
-        <v>1</v>
-      </c>
-      <c r="E132" s="27">
-        <v>0.225806451612903</v>
-      </c>
-      <c r="F132" s="27"/>
-      <c r="G132" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="44"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="44"/>
-      <c r="B134" s="44"/>
-      <c r="C134" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D134" s="27">
-        <v>0.58823529411764697</v>
-      </c>
-      <c r="E134" s="27">
-        <v>0.19354838709677399</v>
-      </c>
-      <c r="F134" s="27"/>
-      <c r="G134" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
-      <c r="C135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="20">
-        <v>1.0882352941176501</v>
-      </c>
-      <c r="E135" s="20">
-        <v>0.483870967741935</v>
-      </c>
-      <c r="F135" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G135" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
-      <c r="C136" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="27">
-        <v>0.88235294117647101</v>
-      </c>
-      <c r="E136" s="27">
-        <v>0.58064516129032295</v>
-      </c>
-      <c r="F136" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G136" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="44"/>
-      <c r="B137" s="44"/>
-      <c r="C137" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D137" s="20">
-        <v>0.70588235294117696</v>
-      </c>
-      <c r="E137" s="20">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="F137" s="20">
-        <v>0.107142857142857</v>
-      </c>
-      <c r="G137" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D138" s="27">
-        <v>0.41176470588235298</v>
-      </c>
-      <c r="E138" s="27">
-        <v>0.12903225806451599</v>
-      </c>
-      <c r="F138" s="27">
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="G138" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="44"/>
-      <c r="B139" s="44"/>
-      <c r="C139" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D139" s="20">
-        <v>0.41176470588235298</v>
-      </c>
-      <c r="E139" s="20">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="F139" s="20">
-        <v>0.107142857142857</v>
-      </c>
-      <c r="G139" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="44"/>
-      <c r="B140" s="44"/>
-      <c r="C140" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="27">
-        <v>0.47058823529411797</v>
-      </c>
-      <c r="E140" s="27">
-        <v>0.12903225806451599</v>
-      </c>
-      <c r="F140" s="27">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="G140" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="44"/>
-      <c r="B141" s="44"/>
-      <c r="C141" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="20">
-        <v>0.79411764705882304</v>
-      </c>
-      <c r="E141" s="20">
-        <v>0.35483870967741898</v>
-      </c>
-      <c r="F141" s="20">
-        <v>0.39285714285714302</v>
-      </c>
-      <c r="G141" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="44"/>
-      <c r="B142" s="44"/>
-      <c r="C142" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D142" s="27">
-        <v>0.32352941176470601</v>
-      </c>
-      <c r="E142" s="27">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F142" s="27">
-        <v>0.17857142857142899</v>
-      </c>
-      <c r="G142" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="44"/>
-      <c r="B143" s="44"/>
-      <c r="C143" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="20">
-        <v>2.97058823529412</v>
-      </c>
-      <c r="E143" s="20">
-        <v>3.0322580645161299</v>
-      </c>
-      <c r="F143" s="20">
-        <v>1.9285714285714299</v>
-      </c>
-      <c r="G143" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="44"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D144" s="27">
-        <v>0.58823529411764697</v>
-      </c>
-      <c r="E144" s="27">
-        <v>0.35483870967741898</v>
-      </c>
-      <c r="F144" s="27">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="G144" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D145" s="20">
-        <v>0.29411764705882398</v>
-      </c>
-      <c r="E145" s="20">
-        <v>0.12903225806451599</v>
-      </c>
-      <c r="F145" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="G145" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D146" s="27">
-        <v>0.11764705882352899</v>
-      </c>
-      <c r="E146" s="27">
-        <v>0.16129032258064499</v>
-      </c>
-      <c r="F146" s="27">
-        <v>0.107142857142857</v>
-      </c>
-      <c r="G146" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="44"/>
-      <c r="B147" s="44"/>
-      <c r="C147" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D147" s="20">
-        <v>8.8235294117647106E-2</v>
-      </c>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20">
-        <v>0.107142857142857</v>
-      </c>
-      <c r="G147" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="44"/>
-      <c r="B148" s="44"/>
-      <c r="C148" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D148" s="27">
-        <v>8.8235294117647106E-2</v>
-      </c>
-      <c r="E148" s="27">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="F148" s="27">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="G148" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="44"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D149" s="20">
-        <v>0.29411764705882398</v>
-      </c>
-      <c r="E149" s="20">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="F149" s="20">
-        <v>0.78571428571428603</v>
-      </c>
-      <c r="G149" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="44"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27">
-        <v>0.107142857142857</v>
-      </c>
-      <c r="G150" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
-      <c r="C151" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="20">
-        <v>8.8235294117647106E-2</v>
-      </c>
-      <c r="E151" s="20">
-        <v>0.25806451612903197</v>
-      </c>
-      <c r="F151" s="20">
-        <v>0.46428571428571402</v>
-      </c>
-      <c r="G151" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="44"/>
-      <c r="B152" s="44"/>
-      <c r="C152" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152" s="27">
-        <v>0.14705882352941199</v>
-      </c>
-      <c r="E152" s="27">
-        <v>1.06451612903226</v>
-      </c>
-      <c r="F152" s="27">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="G152" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="44"/>
-      <c r="B153" s="44"/>
-      <c r="C153" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D153" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E153" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F153" s="20">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="G153" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="44"/>
-      <c r="B154" s="44"/>
-      <c r="C154" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27">
-        <v>0.67857142857142905</v>
-      </c>
-      <c r="G154" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="44"/>
-      <c r="B155" s="44"/>
-      <c r="C155" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G155" s="40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="44"/>
-      <c r="B156" s="44"/>
-      <c r="C156" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27">
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="G156" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="44"/>
-      <c r="B157" s="44"/>
-      <c r="C157" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20">
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="G157" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="44"/>
-      <c r="B158" s="44"/>
-      <c r="C158" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G158" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="44"/>
-      <c r="B159" s="44"/>
-      <c r="C159" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G159" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="44"/>
-      <c r="B160" s="44"/>
-      <c r="C160" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27">
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="G160" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="44"/>
-      <c r="B161" s="44"/>
-      <c r="C161" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20">
-        <v>0.19354838709677399</v>
-      </c>
-      <c r="F161" s="20"/>
-      <c r="G161" s="33"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="44"/>
-      <c r="B162" s="44"/>
-      <c r="C162" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F162" s="27"/>
-      <c r="G162" s="34"/>
-    </row>
-    <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="45"/>
-      <c r="B163" s="45"/>
-      <c r="C163" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29">
-        <v>6.4516129032258104E-2</v>
-      </c>
-      <c r="F163" s="29"/>
-      <c r="G163" s="36"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A114:A163"/>
-    <mergeCell ref="B115:B125"/>
-    <mergeCell ref="B126:B163"/>
     <mergeCell ref="A2:A51"/>
+    <mergeCell ref="B13:B51"/>
+    <mergeCell ref="A52:A109"/>
+    <mergeCell ref="B64:B109"/>
+    <mergeCell ref="A110:A159"/>
+    <mergeCell ref="B111:B121"/>
+    <mergeCell ref="B122:B159"/>
     <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B51"/>
-    <mergeCell ref="A54:A111"/>
-    <mergeCell ref="B55:B65"/>
-    <mergeCell ref="B66:B111"/>
+    <mergeCell ref="B53:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -7753,10 +7705,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202A38C9-2EAB-4F2A-83A0-C7DD5A2DA12E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C6C962-298D-442F-913D-3477D7E61B99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7779,20 +7757,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C6C962-298D-442F-913D-3477D7E61B99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202A38C9-2EAB-4F2A-83A0-C7DD5A2DA12E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>